--- a/doc/基础数据.xlsx
+++ b/doc/基础数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Projects\hrs\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171ADE9A-D433-4C55-A640-956D13857BA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0D6BA1-EF99-4C65-BEC1-E53CF747E1DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="5580" windowWidth="38700" windowHeight="15420" xr2:uid="{0DF2F47D-9A2C-4916-8A61-EA5335EE1D1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0DF2F47D-9A2C-4916-8A61-EA5335EE1D1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="198">
   <si>
     <t>汉族</t>
   </si>
@@ -272,18 +281,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研究生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,12 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1378349825707942082</t>
-  </si>
-  <si>
-    <t>1378349825707942086</t>
-  </si>
-  <si>
     <t>婚姻状况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,9 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1378349825707942089</t>
-  </si>
-  <si>
     <t>复婚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -642,6 +634,71 @@
   </si>
   <si>
     <t>1378349825707942074</t>
+  </si>
+  <si>
+    <t>在司状态</t>
+  </si>
+  <si>
+    <t>CompanyState</t>
+  </si>
+  <si>
+    <t>在职</t>
+  </si>
+  <si>
+    <t>离职</t>
+  </si>
+  <si>
+    <t>岗位类型</t>
+  </si>
+  <si>
+    <t>PostType</t>
+  </si>
+  <si>
+    <t>管理序列</t>
+  </si>
+  <si>
+    <t>职员序列</t>
+  </si>
+  <si>
+    <t>现场操作序列</t>
+  </si>
+  <si>
+    <t>1378349825707942161</t>
+  </si>
+  <si>
+    <t>1378349825707942164</t>
+  </si>
+  <si>
+    <t>其他关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13783498257079420162</t>
+  </si>
+  <si>
+    <t>博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大专</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1378349825707942083</t>
+  </si>
+  <si>
+    <t>1378349825707942087</t>
+  </si>
+  <si>
+    <t>1378349825707942090</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F47FD5-0FF8-458C-B69F-176231F0BF77}">
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J160" sqref="A151:J160"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91:D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2570,10 +2627,10 @@
         <v>1378349825707942058</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="D58" t="s">
         <v>58</v>
@@ -2597,10 +2654,10 @@
         <v>1378349825707942059</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D59" t="s">
         <v>58</v>
@@ -2830,7 +2887,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f t="shared" ref="A68:A99" si="1">"13783498257079420"&amp;TEXT(ROW(A68),"00")</f>
+        <f t="shared" ref="A68:A131" si="1">"13783498257079420"&amp;TEXT(ROW(A68),"00")</f>
         <v>1378349825707942068</v>
       </c>
       <c r="B68" t="s">
@@ -2996,10 +3053,10 @@
         <v>1378349825707942074</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -3017,26 +3074,13 @@
         <v>1378349825707942075</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" t="s">
-        <v>182</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J75" s="1">
-        <v>44335.972106423615</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="J75" s="1"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
@@ -3044,16 +3088,16 @@
         <v>1378349825707942076</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -3071,16 +3115,16 @@
         <v>1378349825707942077</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -3098,16 +3142,16 @@
         <v>1378349825707942078</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -3125,16 +3169,16 @@
         <v>1378349825707942079</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -3152,16 +3196,16 @@
         <v>1378349825707942080</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -3179,16 +3223,16 @@
         <v>1378349825707942081</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D81" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -3206,10 +3250,16 @@
         <v>1378349825707942082</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="D82" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82">
+        <v>7</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -3227,16 +3277,10 @@
         <v>1378349825707942083</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" t="s">
-        <v>93</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -3254,16 +3298,16 @@
         <v>1378349825707942084</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D84" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -3287,10 +3331,10 @@
         <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -3308,10 +3352,16 @@
         <v>1378349825707942086</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="D86" t="s">
+        <v>195</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -3329,16 +3379,10 @@
         <v>1378349825707942087</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" t="s">
-        <v>94</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -3356,16 +3400,16 @@
         <v>1378349825707942088</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -3383,10 +3427,16 @@
         <v>1378349825707942089</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="D89" t="s">
+        <v>196</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3404,16 +3454,10 @@
         <v>1378349825707942090</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" t="s">
-        <v>97</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -3431,16 +3475,16 @@
         <v>1378349825707942091</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D91" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3458,16 +3502,16 @@
         <v>1378349825707942092</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D92" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -3485,16 +3529,16 @@
         <v>1378349825707942093</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D93" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -3512,16 +3556,16 @@
         <v>1378349825707942094</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D94" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="E94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -3545,10 +3589,10 @@
         <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="E95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3566,10 +3610,16 @@
         <v>1378349825707942096</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>93</v>
+      </c>
+      <c r="D96" t="s">
+        <v>197</v>
+      </c>
+      <c r="E96">
+        <v>6</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -3587,13 +3637,10 @@
         <v>1378349825707942097</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>107</v>
-      </c>
-      <c r="D97" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3611,13 +3658,13 @@
         <v>1378349825707942098</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -3635,13 +3682,13 @@
         <v>1378349825707942099</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D99" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3655,17 +3702,17 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A100),"00")</f>
-        <v>1378349825707942100</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420100</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D100" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3679,14 +3726,17 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <f t="shared" ref="A101:A160" si="2">"1378349825707942"&amp;TEXT(ROW(A101),"00")</f>
-        <v>1378349825707942101</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420101</v>
       </c>
       <c r="B101" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>135</v>
+        <v>101</v>
+      </c>
+      <c r="D101" t="s">
+        <v>105</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -3700,20 +3750,14 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942102</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D102" t="s">
-        <v>165</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" t="s">
+        <v>130</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -3727,20 +3771,20 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942103</v>
-      </c>
-      <c r="B103" t="s">
-        <v>112</v>
-      </c>
-      <c r="C103" t="s">
-        <v>112</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420103</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -3754,20 +3798,20 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942104</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420104</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D104" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -3781,20 +3825,20 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942105</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420105</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -3808,20 +3852,20 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942106</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420106</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D106" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -3835,20 +3879,20 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942107</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420107</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D107" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E107">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -3862,20 +3906,20 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942108</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420108</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D108" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E108">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -3889,20 +3933,20 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942109</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420109</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D109" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E109">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -3916,20 +3960,20 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942110</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420110</v>
       </c>
       <c r="B110" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D110" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E110">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -3943,20 +3987,20 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942111</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420111</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D111" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E111">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -3970,20 +4014,20 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942112</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420112</v>
       </c>
       <c r="B112" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D112" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E112">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -3997,20 +4041,20 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942113</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420113</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D113" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E113">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -4024,20 +4068,20 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942114</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420114</v>
       </c>
       <c r="B114" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D114" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E114">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -4051,20 +4095,20 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942115</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420115</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C115" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D115" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E115">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -4078,20 +4122,20 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942116</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420116</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C116" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D116" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E116">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -4105,20 +4149,20 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942117</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420117</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C117" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D117" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E117">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -4132,8 +4176,8 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942118</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420118</v>
       </c>
       <c r="B118" t="s">
         <v>127</v>
@@ -4142,10 +4186,10 @@
         <v>127</v>
       </c>
       <c r="D118" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E118">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -4159,20 +4203,20 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942119</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420119</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E119">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -4186,20 +4230,20 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942120</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420120</v>
       </c>
       <c r="B120" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D120" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E120">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -4213,20 +4257,20 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942121</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420121</v>
       </c>
       <c r="B121" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C121" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D121" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E121">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -4240,20 +4284,20 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942122</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420122</v>
       </c>
       <c r="B122" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C122" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D122" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E122">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -4267,20 +4311,20 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942123</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420123</v>
       </c>
       <c r="B123" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C123" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D123" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E123">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -4294,20 +4338,20 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942124</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420124</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C124" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D124" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E124">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -4321,14 +4365,20 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942125</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420125</v>
       </c>
       <c r="B125" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>137</v>
+        <v>189</v>
+      </c>
+      <c r="D125" t="s">
+        <v>160</v>
+      </c>
+      <c r="E125">
+        <v>23</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -4342,20 +4392,14 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942126</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D126" t="s">
-        <v>166</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+      <c r="C126" t="s">
+        <v>132</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -4369,20 +4413,20 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942127</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420127</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D127" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -4396,20 +4440,20 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942128</v>
-      </c>
-      <c r="B128" t="s">
-        <v>139</v>
-      </c>
-      <c r="C128" t="s">
-        <v>139</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420128</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D128" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -4423,14 +4467,20 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942129</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420129</v>
       </c>
       <c r="B129" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>134</v>
+      </c>
+      <c r="D129" t="s">
+        <v>161</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -4444,20 +4494,14 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942130</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420130</v>
       </c>
       <c r="B130" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C130" t="s">
-        <v>144</v>
-      </c>
-      <c r="D130" t="s">
-        <v>167</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -4471,20 +4515,20 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942131</v>
+        <f t="shared" si="1"/>
+        <v>13783498257079420131</v>
       </c>
       <c r="B131" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C131" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D131" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -4498,20 +4542,20 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
-        <f t="shared" si="2"/>
-        <v>1378349825707942132</v>
+        <f t="shared" ref="A132:A168" si="2">"13783498257079420"&amp;TEXT(ROW(A132),"00")</f>
+        <v>13783498257079420132</v>
       </c>
       <c r="B132" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C132" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D132" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -4526,19 +4570,19 @@
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942133</v>
+        <v>13783498257079420133</v>
       </c>
       <c r="B133" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C133" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D133" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -4553,19 +4597,19 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942134</v>
+        <v>13783498257079420134</v>
       </c>
       <c r="B134" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C134" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D134" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E134">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -4580,19 +4624,19 @@
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942135</v>
+        <v>13783498257079420135</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C135" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D135" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E135">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -4607,19 +4651,19 @@
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942136</v>
+        <v>13783498257079420136</v>
       </c>
       <c r="B136" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C136" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D136" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E136">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -4634,19 +4678,19 @@
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942137</v>
+        <v>13783498257079420137</v>
       </c>
       <c r="B137" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C137" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D137" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E137">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -4661,19 +4705,19 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942138</v>
+        <v>13783498257079420138</v>
       </c>
       <c r="B138" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C138" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D138" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E138">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -4688,19 +4732,19 @@
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942139</v>
+        <v>13783498257079420139</v>
       </c>
       <c r="B139" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C139" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D139" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E139">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -4715,19 +4759,19 @@
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942140</v>
+        <v>13783498257079420140</v>
       </c>
       <c r="B140" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C140" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D140" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E140">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -4742,19 +4786,19 @@
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942141</v>
+        <v>13783498257079420141</v>
       </c>
       <c r="B141" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C141" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D141" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E141">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -4769,19 +4813,19 @@
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942142</v>
+        <v>13783498257079420142</v>
       </c>
       <c r="B142" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C142" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D142" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E142">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -4796,19 +4840,19 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942143</v>
+        <v>13783498257079420143</v>
       </c>
       <c r="B143" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C143" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D143" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E143">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -4823,19 +4867,19 @@
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942144</v>
+        <v>13783498257079420144</v>
       </c>
       <c r="B144" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C144" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D144" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E144">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -4850,19 +4894,19 @@
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942145</v>
+        <v>13783498257079420145</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C145" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D145" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E145">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -4877,13 +4921,19 @@
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942146</v>
+        <v>13783498257079420146</v>
       </c>
       <c r="B146" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C146" t="s">
-        <v>163</v>
+        <v>138</v>
+      </c>
+      <c r="D146" t="s">
+        <v>162</v>
+      </c>
+      <c r="E146">
+        <v>16</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -4898,19 +4948,13 @@
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942147</v>
+        <v>13783498257079420147</v>
       </c>
       <c r="B147" t="s">
         <v>159</v>
       </c>
       <c r="C147" t="s">
-        <v>159</v>
-      </c>
-      <c r="D147" t="s">
-        <v>168</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -4925,19 +4969,19 @@
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942148</v>
+        <v>13783498257079420148</v>
       </c>
       <c r="B148" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D148" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -4952,19 +4996,19 @@
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942149</v>
+        <v>13783498257079420149</v>
       </c>
       <c r="B149" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C149" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D149" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -4979,19 +5023,19 @@
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942150</v>
+        <v>13783498257079420150</v>
       </c>
       <c r="B150" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C150" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D150" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -5006,13 +5050,19 @@
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942151</v>
+        <v>13783498257079420151</v>
       </c>
       <c r="B151" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C151" t="s">
-        <v>181</v>
+        <v>155</v>
+      </c>
+      <c r="D151" t="s">
+        <v>163</v>
+      </c>
+      <c r="E151">
+        <v>4</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -5027,19 +5077,13 @@
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942152</v>
+        <v>13783498257079420152</v>
       </c>
       <c r="B152" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C152" t="s">
-        <v>170</v>
-      </c>
-      <c r="D152" t="s">
-        <v>180</v>
-      </c>
-      <c r="E152">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -5054,19 +5098,19 @@
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942153</v>
+        <v>13783498257079420153</v>
       </c>
       <c r="B153" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C153" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D153" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -5081,19 +5125,19 @@
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942154</v>
+        <v>13783498257079420154</v>
       </c>
       <c r="B154" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C154" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D154" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -5108,19 +5152,19 @@
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942155</v>
+        <v>13783498257079420155</v>
       </c>
       <c r="B155" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C155" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D155" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -5135,19 +5179,19 @@
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942156</v>
+        <v>13783498257079420156</v>
       </c>
       <c r="B156" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C156" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D156" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -5162,19 +5206,19 @@
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942157</v>
+        <v>13783498257079420157</v>
       </c>
       <c r="B157" t="s">
+        <v>169</v>
+      </c>
+      <c r="C157" t="s">
+        <v>169</v>
+      </c>
+      <c r="D157" t="s">
         <v>175</v>
       </c>
-      <c r="C157" t="s">
-        <v>175</v>
-      </c>
-      <c r="D157" t="s">
-        <v>180</v>
-      </c>
       <c r="E157">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -5189,19 +5233,19 @@
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942158</v>
+        <v>13783498257079420158</v>
       </c>
       <c r="B158" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C158" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D158" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E158">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -5216,19 +5260,19 @@
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942159</v>
+        <v>13783498257079420159</v>
       </c>
       <c r="B159" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C159" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D159" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E159">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -5243,27 +5287,231 @@
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
-        <v>1378349825707942160</v>
+        <v>13783498257079420160</v>
       </c>
       <c r="B160" t="s">
+        <v>172</v>
+      </c>
+      <c r="C160" t="s">
+        <v>172</v>
+      </c>
+      <c r="D160" t="s">
+        <v>175</v>
+      </c>
+      <c r="E160">
+        <v>8</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="J160" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" t="str">
+        <f t="shared" si="2"/>
+        <v>13783498257079420161</v>
+      </c>
+      <c r="B161" t="s">
+        <v>173</v>
+      </c>
+      <c r="C161" t="s">
+        <v>173</v>
+      </c>
+      <c r="D161" t="s">
+        <v>175</v>
+      </c>
+      <c r="E161">
+        <v>9</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="J161" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" t="str">
+        <f t="shared" si="2"/>
+        <v>13783498257079420162</v>
+      </c>
+      <c r="B162" t="s">
         <v>178</v>
       </c>
-      <c r="C160" t="s">
-        <v>178</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="C162" t="s">
+        <v>179</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="J162" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" t="str">
+        <f t="shared" si="2"/>
+        <v>13783498257079420163</v>
+      </c>
+      <c r="B163" t="s">
         <v>180</v>
       </c>
-      <c r="E160">
-        <v>9</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-      <c r="H160" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J160" s="1">
+      <c r="C163" t="s">
+        <v>180</v>
+      </c>
+      <c r="D163" t="s">
+        <v>191</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="J163" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" t="str">
+        <f t="shared" si="2"/>
+        <v>13783498257079420164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>181</v>
+      </c>
+      <c r="C164" t="s">
+        <v>181</v>
+      </c>
+      <c r="D164" t="s">
+        <v>187</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="J164" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" t="str">
+        <f t="shared" si="2"/>
+        <v>13783498257079420165</v>
+      </c>
+      <c r="B165" t="s">
+        <v>182</v>
+      </c>
+      <c r="C165" t="s">
+        <v>183</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="J165" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" t="str">
+        <f t="shared" si="2"/>
+        <v>13783498257079420166</v>
+      </c>
+      <c r="B166" t="s">
+        <v>184</v>
+      </c>
+      <c r="C166" t="s">
+        <v>184</v>
+      </c>
+      <c r="D166" t="s">
+        <v>188</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="J166" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" t="str">
+        <f t="shared" si="2"/>
+        <v>13783498257079420167</v>
+      </c>
+      <c r="B167" t="s">
+        <v>185</v>
+      </c>
+      <c r="C167" t="s">
+        <v>185</v>
+      </c>
+      <c r="D167" t="s">
+        <v>188</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="J167" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" t="str">
+        <f t="shared" si="2"/>
+        <v>13783498257079420168</v>
+      </c>
+      <c r="B168" t="s">
+        <v>186</v>
+      </c>
+      <c r="C168" t="s">
+        <v>186</v>
+      </c>
+      <c r="D168" t="s">
+        <v>188</v>
+      </c>
+      <c r="E168">
+        <v>3</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="J168" s="1">
         <v>44335.972106423615</v>
       </c>
     </row>

--- a/doc/基础数据.xlsx
+++ b/doc/基础数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Projects\hrs\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0D6BA1-EF99-4C65-BEC1-E53CF747E1DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CBF2D4-F257-4552-A134-A01D4FE355AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0DF2F47D-9A2C-4916-8A61-EA5335EE1D1C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="197">
   <si>
     <t>汉族</t>
   </si>
@@ -397,9 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1378349825707942096</t>
-  </si>
-  <si>
     <t>父亲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -580,15 +577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1378349825707942101</t>
-  </si>
-  <si>
-    <t>1378349825707942125</t>
-  </si>
-  <si>
-    <t>1378349825707942129</t>
-  </si>
-  <si>
     <t>1378349825707942146</t>
   </si>
   <si>
@@ -626,9 +614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1378349825707942151</t>
-  </si>
-  <si>
     <t>UnitType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -663,12 +648,6 @@
     <t>现场操作序列</t>
   </si>
   <si>
-    <t>1378349825707942161</t>
-  </si>
-  <si>
-    <t>1378349825707942164</t>
-  </si>
-  <si>
     <t>其他关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -677,9 +656,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13783498257079420162</t>
-  </si>
-  <si>
     <t>博士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,6 +675,27 @@
   </si>
   <si>
     <t>1378349825707942090</t>
+  </si>
+  <si>
+    <t>1378349825707942097</t>
+  </si>
+  <si>
+    <t>1378349825707942102</t>
+  </si>
+  <si>
+    <t>1378349825707942126</t>
+  </si>
+  <si>
+    <t>1378349825707942130</t>
+  </si>
+  <si>
+    <t>1378349825707942152</t>
+  </si>
+  <si>
+    <t>1378349825707942162</t>
+  </si>
+  <si>
+    <t>1378349825707942165</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F47FD5-0FF8-458C-B69F-176231F0BF77}">
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91:D96"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166:D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2627,10 +2624,10 @@
         <v>1378349825707942058</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D58" t="s">
         <v>58</v>
@@ -2654,10 +2651,10 @@
         <v>1378349825707942059</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D59" t="s">
         <v>58</v>
@@ -3074,10 +3071,10 @@
         <v>1378349825707942075</v>
       </c>
       <c r="B75" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H75" s="1"/>
       <c r="J75" s="1"/>
@@ -3088,13 +3085,13 @@
         <v>1378349825707942076</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C76" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D76" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3121,7 +3118,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -3142,13 +3139,13 @@
         <v>1378349825707942078</v>
       </c>
       <c r="B78" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C78" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E78">
         <v>3</v>
@@ -3175,7 +3172,7 @@
         <v>75</v>
       </c>
       <c r="D79" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -3202,7 +3199,7 @@
         <v>77</v>
       </c>
       <c r="D80" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -3229,7 +3226,7 @@
         <v>78</v>
       </c>
       <c r="D81" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E81">
         <v>6</v>
@@ -3256,7 +3253,7 @@
         <v>79</v>
       </c>
       <c r="D82" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E82">
         <v>7</v>
@@ -3304,7 +3301,7 @@
         <v>82</v>
       </c>
       <c r="D84" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3331,7 +3328,7 @@
         <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -3358,7 +3355,7 @@
         <v>81</v>
       </c>
       <c r="D86" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E86">
         <v>3</v>
@@ -3406,7 +3403,7 @@
         <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3433,7 +3430,7 @@
         <v>90</v>
       </c>
       <c r="D89" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -3481,7 +3478,7 @@
         <v>96</v>
       </c>
       <c r="D91" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3508,7 +3505,7 @@
         <v>97</v>
       </c>
       <c r="D92" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -3535,7 +3532,7 @@
         <v>95</v>
       </c>
       <c r="D93" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E93">
         <v>3</v>
@@ -3562,7 +3559,7 @@
         <v>94</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E94">
         <v>4</v>
@@ -3589,7 +3586,7 @@
         <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E95">
         <v>5</v>
@@ -3616,7 +3613,7 @@
         <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E96">
         <v>6</v>
@@ -3664,7 +3661,7 @@
         <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -3688,7 +3685,7 @@
         <v>103</v>
       </c>
       <c r="D99" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3702,8 +3699,8 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420100</v>
+        <f>"1378349825707942"&amp;TEXT(ROW(A100),"00")</f>
+        <v>1378349825707942100</v>
       </c>
       <c r="B100" t="s">
         <v>104</v>
@@ -3712,7 +3709,7 @@
         <v>104</v>
       </c>
       <c r="D100" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3726,8 +3723,8 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420101</v>
+        <f t="shared" ref="A101:A164" si="2">"1378349825707942"&amp;TEXT(ROW(A101),"00")</f>
+        <v>1378349825707942101</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
@@ -3736,7 +3733,7 @@
         <v>101</v>
       </c>
       <c r="D101" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -3750,14 +3747,14 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420102</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942102</v>
       </c>
       <c r="B102" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" t="s">
         <v>129</v>
-      </c>
-      <c r="C102" t="s">
-        <v>130</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -3771,17 +3768,17 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420103</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D103" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3798,17 +3795,17 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420104</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942104</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D104" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -3825,17 +3822,17 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420105</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942105</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D105" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -3852,17 +3849,17 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420106</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942106</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D106" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E106">
         <v>4</v>
@@ -3879,17 +3876,17 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420107</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942107</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D107" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -3906,17 +3903,17 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420108</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942108</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D108" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E108">
         <v>6</v>
@@ -3933,17 +3930,17 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420109</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942109</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D109" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E109">
         <v>7</v>
@@ -3960,17 +3957,17 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420110</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942110</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D110" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E110">
         <v>8</v>
@@ -3987,17 +3984,17 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420111</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942111</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D111" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E111">
         <v>9</v>
@@ -4014,17 +4011,17 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420112</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942112</v>
       </c>
       <c r="B112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D112" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E112">
         <v>10</v>
@@ -4041,17 +4038,17 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420113</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942113</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D113" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E113">
         <v>11</v>
@@ -4068,17 +4065,17 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420114</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942114</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D114" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E114">
         <v>12</v>
@@ -4095,17 +4092,17 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420115</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942115</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D115" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E115">
         <v>13</v>
@@ -4122,17 +4119,17 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420116</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942116</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D116" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E116">
         <v>14</v>
@@ -4149,17 +4146,17 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420117</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942117</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D117" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E117">
         <v>15</v>
@@ -4176,17 +4173,17 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420118</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942118</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D118" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E118">
         <v>16</v>
@@ -4203,17 +4200,17 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420119</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942119</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D119" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E119">
         <v>17</v>
@@ -4230,17 +4227,17 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420120</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942120</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E120">
         <v>18</v>
@@ -4257,17 +4254,17 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420121</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942121</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D121" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E121">
         <v>19</v>
@@ -4284,17 +4281,17 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420122</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942122</v>
       </c>
       <c r="B122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D122" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E122">
         <v>20</v>
@@ -4311,17 +4308,17 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420123</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942123</v>
       </c>
       <c r="B123" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C123" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D123" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E123">
         <v>21</v>
@@ -4338,17 +4335,17 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420124</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942124</v>
       </c>
       <c r="B124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D124" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E124">
         <v>22</v>
@@ -4365,17 +4362,17 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420125</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942125</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D125" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E125">
         <v>23</v>
@@ -4392,14 +4389,14 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420126</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942126</v>
       </c>
       <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" t="s">
         <v>131</v>
-      </c>
-      <c r="C126" t="s">
-        <v>132</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -4413,17 +4410,17 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420127</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942127</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D127" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -4440,17 +4437,17 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420128</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942128</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D128" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -4467,17 +4464,17 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420129</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942129</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D129" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="E129">
         <v>3</v>
@@ -4494,14 +4491,14 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420130</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942130</v>
       </c>
       <c r="B130" t="s">
+        <v>135</v>
+      </c>
+      <c r="C130" t="s">
         <v>136</v>
-      </c>
-      <c r="C130" t="s">
-        <v>137</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -4515,17 +4512,17 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f t="shared" si="1"/>
-        <v>13783498257079420131</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942131</v>
       </c>
       <c r="B131" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D131" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -4542,17 +4539,17 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
-        <f t="shared" ref="A132:A168" si="2">"13783498257079420"&amp;TEXT(ROW(A132),"00")</f>
-        <v>13783498257079420132</v>
+        <f t="shared" si="2"/>
+        <v>1378349825707942132</v>
       </c>
       <c r="B132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D132" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E132">
         <v>2</v>
@@ -4570,16 +4567,16 @@
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420133</v>
+        <v>1378349825707942133</v>
       </c>
       <c r="B133" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C133" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D133" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E133">
         <v>3</v>
@@ -4597,16 +4594,16 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420134</v>
+        <v>1378349825707942134</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D134" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E134">
         <v>4</v>
@@ -4624,16 +4621,16 @@
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420135</v>
+        <v>1378349825707942135</v>
       </c>
       <c r="B135" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D135" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E135">
         <v>5</v>
@@ -4651,16 +4648,16 @@
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420136</v>
+        <v>1378349825707942136</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D136" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E136">
         <v>6</v>
@@ -4678,16 +4675,16 @@
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420137</v>
+        <v>1378349825707942137</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D137" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E137">
         <v>7</v>
@@ -4705,16 +4702,16 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420138</v>
+        <v>1378349825707942138</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D138" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E138">
         <v>8</v>
@@ -4732,16 +4729,16 @@
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420139</v>
+        <v>1378349825707942139</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D139" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E139">
         <v>9</v>
@@ -4759,16 +4756,16 @@
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420140</v>
+        <v>1378349825707942140</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C140" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D140" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E140">
         <v>10</v>
@@ -4786,16 +4783,16 @@
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420141</v>
+        <v>1378349825707942141</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D141" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E141">
         <v>11</v>
@@ -4813,16 +4810,16 @@
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420142</v>
+        <v>1378349825707942142</v>
       </c>
       <c r="B142" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D142" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E142">
         <v>12</v>
@@ -4840,16 +4837,16 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420143</v>
+        <v>1378349825707942143</v>
       </c>
       <c r="B143" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C143" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D143" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E143">
         <v>13</v>
@@ -4867,16 +4864,16 @@
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420144</v>
+        <v>1378349825707942144</v>
       </c>
       <c r="B144" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C144" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D144" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E144">
         <v>14</v>
@@ -4894,16 +4891,16 @@
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420145</v>
+        <v>1378349825707942145</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D145" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E145">
         <v>15</v>
@@ -4921,16 +4918,16 @@
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420146</v>
+        <v>1378349825707942146</v>
       </c>
       <c r="B146" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C146" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D146" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="E146">
         <v>16</v>
@@ -4948,13 +4945,13 @@
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420147</v>
+        <v>1378349825707942147</v>
       </c>
       <c r="B147" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C147" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -4969,16 +4966,16 @@
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420148</v>
+        <v>1378349825707942148</v>
       </c>
       <c r="B148" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C148" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D148" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -4996,16 +4993,16 @@
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420149</v>
+        <v>1378349825707942149</v>
       </c>
       <c r="B149" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C149" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D149" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E149">
         <v>2</v>
@@ -5023,16 +5020,16 @@
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420150</v>
+        <v>1378349825707942150</v>
       </c>
       <c r="B150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D150" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E150">
         <v>3</v>
@@ -5050,16 +5047,16 @@
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420151</v>
+        <v>1378349825707942151</v>
       </c>
       <c r="B151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D151" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E151">
         <v>4</v>
@@ -5077,13 +5074,13 @@
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420152</v>
+        <v>1378349825707942152</v>
       </c>
       <c r="B152" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C152" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -5098,16 +5095,16 @@
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420153</v>
+        <v>1378349825707942153</v>
       </c>
       <c r="B153" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C153" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D153" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -5125,16 +5122,16 @@
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420154</v>
+        <v>1378349825707942154</v>
       </c>
       <c r="B154" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C154" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D154" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E154">
         <v>2</v>
@@ -5152,16 +5149,16 @@
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420155</v>
+        <v>1378349825707942155</v>
       </c>
       <c r="B155" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C155" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D155" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E155">
         <v>3</v>
@@ -5179,16 +5176,16 @@
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420156</v>
+        <v>1378349825707942156</v>
       </c>
       <c r="B156" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C156" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D156" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E156">
         <v>4</v>
@@ -5206,16 +5203,16 @@
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420157</v>
+        <v>1378349825707942157</v>
       </c>
       <c r="B157" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C157" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D157" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E157">
         <v>5</v>
@@ -5233,16 +5230,16 @@
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420158</v>
+        <v>1378349825707942158</v>
       </c>
       <c r="B158" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C158" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D158" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E158">
         <v>6</v>
@@ -5260,16 +5257,16 @@
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420159</v>
+        <v>1378349825707942159</v>
       </c>
       <c r="B159" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C159" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D159" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E159">
         <v>7</v>
@@ -5287,16 +5284,16 @@
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420160</v>
+        <v>1378349825707942160</v>
       </c>
       <c r="B160" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C160" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D160" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E160">
         <v>8</v>
@@ -5314,16 +5311,16 @@
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420161</v>
+        <v>1378349825707942161</v>
       </c>
       <c r="B161" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C161" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D161" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E161">
         <v>9</v>
@@ -5341,13 +5338,13 @@
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420162</v>
+        <v>1378349825707942162</v>
       </c>
       <c r="B162" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C162" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -5362,16 +5359,16 @@
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420163</v>
+        <v>1378349825707942163</v>
       </c>
       <c r="B163" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C163" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D163" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -5389,16 +5386,16 @@
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
-        <v>13783498257079420164</v>
+        <v>1378349825707942164</v>
       </c>
       <c r="B164" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C164" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D164" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E164">
         <v>2</v>
@@ -5415,14 +5412,14 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
-        <f t="shared" si="2"/>
-        <v>13783498257079420165</v>
+        <f t="shared" ref="A165:A168" si="3">"1378349825707942"&amp;TEXT(ROW(A165),"00")</f>
+        <v>1378349825707942165</v>
       </c>
       <c r="B165" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C165" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -5436,17 +5433,17 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
-        <f t="shared" si="2"/>
-        <v>13783498257079420166</v>
+        <f t="shared" si="3"/>
+        <v>1378349825707942166</v>
       </c>
       <c r="B166" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C166" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D166" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -5463,17 +5460,17 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
-        <f t="shared" si="2"/>
-        <v>13783498257079420167</v>
+        <f t="shared" si="3"/>
+        <v>1378349825707942167</v>
       </c>
       <c r="B167" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C167" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D167" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E167">
         <v>2</v>
@@ -5490,17 +5487,17 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
-        <f t="shared" si="2"/>
-        <v>13783498257079420168</v>
+        <f t="shared" si="3"/>
+        <v>1378349825707942168</v>
       </c>
       <c r="B168" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C168" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D168" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E168">
         <v>3</v>

--- a/doc/基础数据.xlsx
+++ b/doc/基础数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Projects\hrs\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CBF2D4-F257-4552-A134-A01D4FE355AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C31627-0F69-443A-A7C0-44AC87202CC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0DF2F47D-9A2C-4916-8A61-EA5335EE1D1C}"/>
+    <workbookView xWindow="8130" yWindow="5580" windowWidth="38700" windowHeight="15420" xr2:uid="{0DF2F47D-9A2C-4916-8A61-EA5335EE1D1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="197">
   <si>
     <t>汉族</t>
   </si>
@@ -1070,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F47FD5-0FF8-458C-B69F-176231F0BF77}">
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166:D168"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2884,7 +2875,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f t="shared" ref="A68:A131" si="1">"13783498257079420"&amp;TEXT(ROW(A68),"00")</f>
+        <f t="shared" ref="A68:A99" si="1">"13783498257079420"&amp;TEXT(ROW(A68),"00")</f>
         <v>1378349825707942068</v>
       </c>
       <c r="B68" t="s">
@@ -3076,8 +3067,21 @@
       <c r="C75" t="s">
         <v>184</v>
       </c>
-      <c r="H75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="D75" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="J75" s="1">
+        <v>44335.972106423615</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
@@ -3094,7 +3098,7 @@
         <v>172</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -3121,7 +3125,7 @@
         <v>172</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -3148,7 +3152,7 @@
         <v>172</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -3175,7 +3179,7 @@
         <v>172</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -3202,7 +3206,7 @@
         <v>172</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -3229,7 +3233,7 @@
         <v>172</v>
       </c>
       <c r="E81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -3256,7 +3260,7 @@
         <v>172</v>
       </c>
       <c r="E82">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G82">
         <v>1</v>

--- a/doc/基础数据.xlsx
+++ b/doc/基础数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Projects\hrs\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C31627-0F69-443A-A7C0-44AC87202CC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66237305-DC5A-43F3-86D6-D036BD2104B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="5580" windowWidth="38700" windowHeight="15420" xr2:uid="{0DF2F47D-9A2C-4916-8A61-EA5335EE1D1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0DF2F47D-9A2C-4916-8A61-EA5335EE1D1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="208">
   <si>
     <t>汉族</t>
   </si>
@@ -687,6 +696,47 @@
   </si>
   <si>
     <t>1378349825707942165</t>
+  </si>
+  <si>
+    <t>血型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodType3</t>
+  </si>
+  <si>
+    <t>BloodType4</t>
+  </si>
+  <si>
+    <t>1378349825707942169</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F47FD5-0FF8-458C-B69F-176231F0BF77}">
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5416,7 +5466,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
-        <f t="shared" ref="A165:A168" si="3">"1378349825707942"&amp;TEXT(ROW(A165),"00")</f>
+        <f t="shared" ref="A165:A173" si="3">"1378349825707942"&amp;TEXT(ROW(A165),"00")</f>
         <v>1378349825707942165</v>
       </c>
       <c r="B165" t="s">
@@ -5513,6 +5563,135 @@
         <v>44335.972106423615</v>
       </c>
       <c r="J168" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" t="str">
+        <f t="shared" si="3"/>
+        <v>1378349825707942169</v>
+      </c>
+      <c r="B169" t="s">
+        <v>197</v>
+      </c>
+      <c r="C169" t="s">
+        <v>198</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="J169" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" t="str">
+        <f t="shared" si="3"/>
+        <v>1378349825707942170</v>
+      </c>
+      <c r="B170" t="s">
+        <v>199</v>
+      </c>
+      <c r="C170" t="s">
+        <v>203</v>
+      </c>
+      <c r="D170" t="s">
+        <v>207</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="J170" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" t="str">
+        <f t="shared" si="3"/>
+        <v>1378349825707942171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>200</v>
+      </c>
+      <c r="C171" t="s">
+        <v>204</v>
+      </c>
+      <c r="D171" t="s">
+        <v>207</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="J171" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" t="str">
+        <f t="shared" si="3"/>
+        <v>1378349825707942172</v>
+      </c>
+      <c r="B172" t="s">
+        <v>201</v>
+      </c>
+      <c r="C172" t="s">
+        <v>205</v>
+      </c>
+      <c r="D172" t="s">
+        <v>207</v>
+      </c>
+      <c r="E172">
+        <v>3</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="J172" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173" t="str">
+        <f t="shared" si="3"/>
+        <v>1378349825707942173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>202</v>
+      </c>
+      <c r="C173" t="s">
+        <v>206</v>
+      </c>
+      <c r="D173" t="s">
+        <v>207</v>
+      </c>
+      <c r="E173">
+        <v>4</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="J173" s="1">
         <v>44335.972106423615</v>
       </c>
     </row>

--- a/doc/基础数据.xlsx
+++ b/doc/基础数据.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Projects\hrs\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66237305-DC5A-43F3-86D6-D036BD2104B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAC67F6-3CA5-46C2-81A2-3F6748AC7ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0DF2F47D-9A2C-4916-8A61-EA5335EE1D1C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="字典数据" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="432">
   <si>
     <t>汉族</t>
   </si>
@@ -648,14 +648,6 @@
     <t>现场操作序列</t>
   </si>
   <si>
-    <t>其他关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他民族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>博士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -736,7 +728,735 @@
     <t>BloodType4</t>
   </si>
   <si>
-    <t>1378349825707942169</t>
+    <t>1378349825707942174</t>
+  </si>
+  <si>
+    <t>总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理助理/总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副科长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员十二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员十一级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员十级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员九级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员八级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员七级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员六级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员五级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员四级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员一级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作十二级</t>
+  </si>
+  <si>
+    <t>操作十一级</t>
+  </si>
+  <si>
+    <t>操作十级</t>
+  </si>
+  <si>
+    <t>操作九级</t>
+  </si>
+  <si>
+    <t>操作八级</t>
+  </si>
+  <si>
+    <t>操作七级</t>
+  </si>
+  <si>
+    <t>操作六级</t>
+  </si>
+  <si>
+    <t>操作五级</t>
+  </si>
+  <si>
+    <t>操作四级</t>
+  </si>
+  <si>
+    <t>操作三级</t>
+  </si>
+  <si>
+    <t>操作二级</t>
+  </si>
+  <si>
+    <t>操作一级</t>
+  </si>
+  <si>
+    <t>G7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z10</t>
+  </si>
+  <si>
+    <t>Z9</t>
+  </si>
+  <si>
+    <t>Z8</t>
+  </si>
+  <si>
+    <t>Z7</t>
+  </si>
+  <si>
+    <t>Z6</t>
+  </si>
+  <si>
+    <t>Z5</t>
+  </si>
+  <si>
+    <t>Z4</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>C12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>DriverLicenseType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DriverLicenseType2</t>
+  </si>
+  <si>
+    <t>DriverLicenseType3</t>
+  </si>
+  <si>
+    <t>DriverLicenseType4</t>
+  </si>
+  <si>
+    <t>DriverLicenseType5</t>
+  </si>
+  <si>
+    <t>DriverLicenseType6</t>
+  </si>
+  <si>
+    <t>DriverLicenseType7</t>
+  </si>
+  <si>
+    <t>DriverLicenseType8</t>
+  </si>
+  <si>
+    <t>DriverLicenseType9</t>
+  </si>
+  <si>
+    <t>DriverLicenseType10</t>
+  </si>
+  <si>
+    <t>DriverLicenseType11</t>
+  </si>
+  <si>
+    <t>DriverLicenseType12</t>
+  </si>
+  <si>
+    <t>DriverLicenseType13</t>
+  </si>
+  <si>
+    <t>DriverLicenseType14</t>
+  </si>
+  <si>
+    <t>DriverLicenseType15</t>
+  </si>
+  <si>
+    <t>DriverLicenseType16</t>
+  </si>
+  <si>
+    <t>CertificateType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CertificateType2</t>
+  </si>
+  <si>
+    <t>CertificateType3</t>
+  </si>
+  <si>
+    <t>CertificateType4</t>
+  </si>
+  <si>
+    <t>UnitType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitType2</t>
+  </si>
+  <si>
+    <t>UnitType3</t>
+  </si>
+  <si>
+    <t>UnitType4</t>
+  </si>
+  <si>
+    <t>UnitType5</t>
+  </si>
+  <si>
+    <t>UnitType6</t>
+  </si>
+  <si>
+    <t>UnitType7</t>
+  </si>
+  <si>
+    <t>UnitType8</t>
+  </si>
+  <si>
+    <t>UnitType9</t>
+  </si>
+  <si>
+    <t>CompanyState1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyState2</t>
+  </si>
+  <si>
+    <t>PostType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostType2</t>
+  </si>
+  <si>
+    <t>PostType3</t>
+  </si>
+  <si>
+    <t>Nation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nation2</t>
+  </si>
+  <si>
+    <t>Nation3</t>
+  </si>
+  <si>
+    <t>Nation4</t>
+  </si>
+  <si>
+    <t>Nation5</t>
+  </si>
+  <si>
+    <t>Nation6</t>
+  </si>
+  <si>
+    <t>Nation7</t>
+  </si>
+  <si>
+    <t>Nation8</t>
+  </si>
+  <si>
+    <t>Nation9</t>
+  </si>
+  <si>
+    <t>Nation10</t>
+  </si>
+  <si>
+    <t>Nation11</t>
+  </si>
+  <si>
+    <t>Nation12</t>
+  </si>
+  <si>
+    <t>Nation13</t>
+  </si>
+  <si>
+    <t>Nation14</t>
+  </si>
+  <si>
+    <t>Nation15</t>
+  </si>
+  <si>
+    <t>Nation16</t>
+  </si>
+  <si>
+    <t>Nation17</t>
+  </si>
+  <si>
+    <t>Nation18</t>
+  </si>
+  <si>
+    <t>Nation19</t>
+  </si>
+  <si>
+    <t>Nation20</t>
+  </si>
+  <si>
+    <t>Nation21</t>
+  </si>
+  <si>
+    <t>Nation22</t>
+  </si>
+  <si>
+    <t>Nation23</t>
+  </si>
+  <si>
+    <t>Nation24</t>
+  </si>
+  <si>
+    <t>Nation25</t>
+  </si>
+  <si>
+    <t>Nation26</t>
+  </si>
+  <si>
+    <t>Nation27</t>
+  </si>
+  <si>
+    <t>Nation28</t>
+  </si>
+  <si>
+    <t>Nation29</t>
+  </si>
+  <si>
+    <t>Nation30</t>
+  </si>
+  <si>
+    <t>Nation31</t>
+  </si>
+  <si>
+    <t>Nation32</t>
+  </si>
+  <si>
+    <t>Nation33</t>
+  </si>
+  <si>
+    <t>Nation34</t>
+  </si>
+  <si>
+    <t>Nation35</t>
+  </si>
+  <si>
+    <t>Nation36</t>
+  </si>
+  <si>
+    <t>Nation37</t>
+  </si>
+  <si>
+    <t>Nation38</t>
+  </si>
+  <si>
+    <t>Nation39</t>
+  </si>
+  <si>
+    <t>Nation40</t>
+  </si>
+  <si>
+    <t>Nation41</t>
+  </si>
+  <si>
+    <t>Nation42</t>
+  </si>
+  <si>
+    <t>Nation43</t>
+  </si>
+  <si>
+    <t>Nation44</t>
+  </si>
+  <si>
+    <t>Nation45</t>
+  </si>
+  <si>
+    <t>Nation46</t>
+  </si>
+  <si>
+    <t>Nation47</t>
+  </si>
+  <si>
+    <t>Nation48</t>
+  </si>
+  <si>
+    <t>Nation49</t>
+  </si>
+  <si>
+    <t>Nation50</t>
+  </si>
+  <si>
+    <t>Nation51</t>
+  </si>
+  <si>
+    <t>Nation52</t>
+  </si>
+  <si>
+    <t>Nation53</t>
+  </si>
+  <si>
+    <t>Nation54</t>
+  </si>
+  <si>
+    <t>Nation55</t>
+  </si>
+  <si>
+    <t>Nation56</t>
+  </si>
+  <si>
+    <t>Nation57</t>
+  </si>
+  <si>
+    <t>Nation58</t>
+  </si>
+  <si>
+    <t>Politics1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Politics2</t>
+  </si>
+  <si>
+    <t>Politics3</t>
+  </si>
+  <si>
+    <t>Politics4</t>
+  </si>
+  <si>
+    <t>Politics5</t>
+  </si>
+  <si>
+    <t>Politics6</t>
+  </si>
+  <si>
+    <t>Politics7</t>
+  </si>
+  <si>
+    <t>Politics8</t>
+  </si>
+  <si>
+    <t>Politics9</t>
+  </si>
+  <si>
+    <t>Politics10</t>
+  </si>
+  <si>
+    <t>Politics11</t>
+  </si>
+  <si>
+    <t>Politics12</t>
+  </si>
+  <si>
+    <t>Politics13</t>
+  </si>
+  <si>
+    <t>Education1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Education2</t>
+  </si>
+  <si>
+    <t>Education3</t>
+  </si>
+  <si>
+    <t>Education4</t>
+  </si>
+  <si>
+    <t>Education5</t>
+  </si>
+  <si>
+    <t>Education6</t>
+  </si>
+  <si>
+    <t>Education7</t>
+  </si>
+  <si>
+    <t>Education8</t>
+  </si>
+  <si>
+    <t>Degree1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Degree2</t>
+  </si>
+  <si>
+    <t>Degree3</t>
+  </si>
+  <si>
+    <t>HouseholdType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseholdType2</t>
+  </si>
+  <si>
+    <t>MaritalStatus1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaritalStatus2</t>
+  </si>
+  <si>
+    <t>MaritalStatus3</t>
+  </si>
+  <si>
+    <t>MaritalStatus4</t>
+  </si>
+  <si>
+    <t>MaritalStatus5</t>
+  </si>
+  <si>
+    <t>MaritalStatus6</t>
+  </si>
+  <si>
+    <t>ApplyFor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyFor2</t>
+  </si>
+  <si>
+    <t>ApplyFor3</t>
+  </si>
+  <si>
+    <t>ApplyFor4</t>
+  </si>
+  <si>
+    <t>Relation1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relation2</t>
+  </si>
+  <si>
+    <t>Relation3</t>
+  </si>
+  <si>
+    <t>Relation4</t>
+  </si>
+  <si>
+    <t>Relation5</t>
+  </si>
+  <si>
+    <t>Relation6</t>
+  </si>
+  <si>
+    <t>Relation7</t>
+  </si>
+  <si>
+    <t>Relation8</t>
+  </si>
+  <si>
+    <t>Relation9</t>
+  </si>
+  <si>
+    <t>Relation10</t>
+  </si>
+  <si>
+    <t>Relation11</t>
+  </si>
+  <si>
+    <t>Relation12</t>
+  </si>
+  <si>
+    <t>Relation13</t>
+  </si>
+  <si>
+    <t>Relation14</t>
+  </si>
+  <si>
+    <t>Relation15</t>
+  </si>
+  <si>
+    <t>Relation16</t>
+  </si>
+  <si>
+    <t>Relation17</t>
+  </si>
+  <si>
+    <t>Relation18</t>
+  </si>
+  <si>
+    <t>Relation19</t>
+  </si>
+  <si>
+    <t>Relation20</t>
+  </si>
+  <si>
+    <t>Relation21</t>
+  </si>
+  <si>
+    <t>Relation22</t>
+  </si>
+  <si>
+    <t>Relation23</t>
+  </si>
+  <si>
+    <t>ParentalSupport1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentalSupport2</t>
+  </si>
+  <si>
+    <t>ParentalSupport3</t>
+  </si>
+  <si>
+    <t>1378349825707942178</t>
+  </si>
+  <si>
+    <t>岗位等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post2</t>
+  </si>
+  <si>
+    <t>Post3</t>
+  </si>
+  <si>
+    <t>Post4</t>
+  </si>
+  <si>
+    <t>Post5</t>
+  </si>
+  <si>
+    <t>Post6</t>
+  </si>
+  <si>
+    <t>Post7</t>
+  </si>
+  <si>
+    <t>Post8</t>
+  </si>
+  <si>
+    <t>PostLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1378349825707942210</t>
   </si>
 </sst>
 </file>
@@ -1109,24 +1829,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F47FD5-0FF8-458C-B69F-176231F0BF77}">
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:K227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.75" customWidth="1"/>
-    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>"13783498257079420"&amp;TEXT(ROW(A1),"00")</f>
         <v>1378349825707942001</v>
@@ -1137,17 +1857,17 @@
       <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1">
         <v>44335.97210648148</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>44335.97210648148</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A67" si="0">"13783498257079420"&amp;TEXT(ROW(A2),"00")</f>
         <v>1378349825707942002</v>
@@ -1156,25 +1876,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>58</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
         <v>44335.97210648148</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>44335.97210648148</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942003</v>
@@ -1183,25 +1906,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J3" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K3" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942004</v>
@@ -1210,25 +1936,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>58</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J4" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K4" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942005</v>
@@ -1237,25 +1966,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J5" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K5" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942006</v>
@@ -1264,25 +1996,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>58</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J6" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K6" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942007</v>
@@ -1291,25 +2026,28 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>58</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J7" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K7" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942008</v>
@@ -1318,25 +2056,28 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>58</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J8" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K8" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942009</v>
@@ -1345,25 +2086,28 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J9" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K9" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942010</v>
@@ -1372,25 +2116,28 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J10" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K10" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942011</v>
@@ -1399,25 +2146,28 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J11" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K11" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942012</v>
@@ -1426,25 +2176,28 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>58</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>11</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J12" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K12" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942013</v>
@@ -1453,25 +2206,28 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J13" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K13" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942014</v>
@@ -1480,25 +2236,28 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>58</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>13</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J14" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K14" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942015</v>
@@ -1507,25 +2266,28 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J15" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K15" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942016</v>
@@ -1534,25 +2296,28 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>58</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>15</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J16" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K16" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942017</v>
@@ -1561,25 +2326,28 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>58</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>16</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J17" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K17" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942018</v>
@@ -1588,25 +2356,28 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>58</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>17</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J18" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K18" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942019</v>
@@ -1615,25 +2386,28 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>58</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J19" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K19" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942020</v>
@@ -1642,25 +2416,28 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>58</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J20" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K20" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942021</v>
@@ -1669,25 +2446,28 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>58</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J21" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K21" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942022</v>
@@ -1696,25 +2476,28 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>58</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J22" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K22" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942023</v>
@@ -1723,25 +2506,28 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>58</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>22</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J23" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K23" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942024</v>
@@ -1750,25 +2536,28 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
+        <v>319</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>58</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>23</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J24" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K24" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942025</v>
@@ -1777,25 +2566,28 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
+        <v>320</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>58</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>24</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J25" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K25" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942026</v>
@@ -1804,25 +2596,28 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
+        <v>321</v>
+      </c>
+      <c r="D26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>58</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>25</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J26" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K26" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942027</v>
@@ -1831,25 +2626,28 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" t="s">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>58</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>26</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J27" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K27" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942028</v>
@@ -1858,25 +2656,28 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
+        <v>323</v>
+      </c>
+      <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>58</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>27</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J28" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K28" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942029</v>
@@ -1885,25 +2686,28 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
+        <v>324</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>58</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>28</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J29" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K29" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942030</v>
@@ -1912,25 +2716,28 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
+        <v>325</v>
+      </c>
+      <c r="D30" t="s">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>58</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>29</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J30" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K30" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942031</v>
@@ -1939,25 +2746,28 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" t="s">
         <v>29</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>58</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>30</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J31" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K31" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942032</v>
@@ -1966,25 +2776,28 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D32" t="s">
         <v>30</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>58</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>31</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J32" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K32" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942033</v>
@@ -1993,25 +2806,28 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
+        <v>328</v>
+      </c>
+      <c r="D33" t="s">
         <v>31</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>58</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>32</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J33" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K33" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942034</v>
@@ -2020,25 +2836,28 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
+        <v>329</v>
+      </c>
+      <c r="D34" t="s">
         <v>32</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>58</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>33</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J34" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K34" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942035</v>
@@ -2047,25 +2866,28 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D35" t="s">
         <v>33</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>58</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>34</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J35" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K35" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942036</v>
@@ -2074,25 +2896,28 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
+        <v>331</v>
+      </c>
+      <c r="D36" t="s">
         <v>34</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>58</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>35</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J36" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K36" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942037</v>
@@ -2101,25 +2926,28 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37" t="s">
         <v>35</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>58</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>36</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J37" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K37" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942038</v>
@@ -2128,25 +2956,28 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
+        <v>333</v>
+      </c>
+      <c r="D38" t="s">
         <v>36</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>58</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>37</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J38" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K38" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942039</v>
@@ -2155,25 +2986,28 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
+        <v>334</v>
+      </c>
+      <c r="D39" t="s">
         <v>37</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>58</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>38</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J39" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K39" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942040</v>
@@ -2182,25 +3016,28 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
+        <v>335</v>
+      </c>
+      <c r="D40" t="s">
         <v>38</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>58</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>39</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J40" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K40" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942041</v>
@@ -2209,25 +3046,28 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
+        <v>336</v>
+      </c>
+      <c r="D41" t="s">
         <v>39</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>58</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>40</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J41" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K41" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942042</v>
@@ -2236,25 +3076,28 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
+        <v>337</v>
+      </c>
+      <c r="D42" t="s">
         <v>40</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>58</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>41</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J42" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K42" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942043</v>
@@ -2263,25 +3106,28 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
+        <v>338</v>
+      </c>
+      <c r="D43" t="s">
         <v>41</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>58</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>42</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J43" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K43" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942044</v>
@@ -2290,25 +3136,28 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
+        <v>339</v>
+      </c>
+      <c r="D44" t="s">
         <v>42</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>58</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>43</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J44" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K44" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942045</v>
@@ -2317,25 +3166,28 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
+        <v>340</v>
+      </c>
+      <c r="D45" t="s">
         <v>43</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>58</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>44</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J45" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K45" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942046</v>
@@ -2344,25 +3196,28 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
+        <v>341</v>
+      </c>
+      <c r="D46" t="s">
         <v>44</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>58</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>45</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J46" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K46" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942047</v>
@@ -2371,25 +3226,28 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
+        <v>342</v>
+      </c>
+      <c r="D47" t="s">
         <v>45</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>58</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>46</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J47" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K47" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942048</v>
@@ -2398,25 +3256,28 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
+        <v>343</v>
+      </c>
+      <c r="D48" t="s">
         <v>46</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>58</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>47</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J48" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K48" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942049</v>
@@ -2425,25 +3286,28 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
+        <v>344</v>
+      </c>
+      <c r="D49" t="s">
         <v>47</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>58</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>48</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J49" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K49" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942050</v>
@@ -2452,25 +3316,28 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
+        <v>345</v>
+      </c>
+      <c r="D50" t="s">
         <v>48</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>58</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>49</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J50" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K50" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942051</v>
@@ -2479,25 +3346,28 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
+        <v>346</v>
+      </c>
+      <c r="D51" t="s">
         <v>49</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>58</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>50</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J51" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K51" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942052</v>
@@ -2506,25 +3376,28 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" t="s">
         <v>50</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>58</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>51</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J52" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K52" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942053</v>
@@ -2533,25 +3406,28 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
+        <v>348</v>
+      </c>
+      <c r="D53" t="s">
         <v>51</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>58</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>52</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J53" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K53" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942054</v>
@@ -2560,25 +3436,28 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
+        <v>349</v>
+      </c>
+      <c r="D54" t="s">
         <v>52</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>58</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>53</v>
       </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J54" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K54" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942055</v>
@@ -2587,25 +3466,28 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
+        <v>350</v>
+      </c>
+      <c r="D55" t="s">
         <v>53</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>58</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>54</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J55" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K55" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942056</v>
@@ -2614,25 +3496,28 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
+        <v>351</v>
+      </c>
+      <c r="D56" t="s">
         <v>54</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>58</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>55</v>
       </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J56" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K56" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942057</v>
@@ -2641,25 +3526,28 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
+        <v>352</v>
+      </c>
+      <c r="D57" t="s">
         <v>55</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>58</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>56</v>
       </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J57" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K57" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942058</v>
@@ -2668,25 +3556,28 @@
         <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>353</v>
       </c>
       <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
         <v>58</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>57</v>
       </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J58" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K58" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942059</v>
@@ -2695,25 +3586,28 @@
         <v>160</v>
       </c>
       <c r="C59" t="s">
+        <v>354</v>
+      </c>
+      <c r="D59" t="s">
         <v>160</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>58</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>58</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J59" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K59" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942060</v>
@@ -2724,17 +3618,17 @@
       <c r="C60" t="s">
         <v>73</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J60" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K60" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942061</v>
@@ -2743,25 +3637,28 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
+        <v>355</v>
+      </c>
+      <c r="D61" t="s">
         <v>59</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>74</v>
       </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J61" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K61" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942062</v>
@@ -2770,25 +3667,28 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
+        <v>356</v>
+      </c>
+      <c r="D62" t="s">
         <v>60</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>74</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>2</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J62" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K62" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942063</v>
@@ -2797,25 +3697,28 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
+        <v>357</v>
+      </c>
+      <c r="D63" t="s">
         <v>61</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>74</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>3</v>
       </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J63" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K63" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942064</v>
@@ -2824,25 +3727,28 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
+        <v>358</v>
+      </c>
+      <c r="D64" t="s">
         <v>62</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>74</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>4</v>
       </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J64" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K64" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942065</v>
@@ -2851,25 +3757,28 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
+        <v>359</v>
+      </c>
+      <c r="D65" t="s">
         <v>63</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>74</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>5</v>
       </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J65" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K65" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942066</v>
@@ -2878,25 +3787,28 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
+        <v>360</v>
+      </c>
+      <c r="D66" t="s">
         <v>64</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>74</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>6</v>
       </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J66" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K66" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>1378349825707942067</v>
@@ -2905,25 +3817,28 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
+        <v>361</v>
+      </c>
+      <c r="D67" t="s">
         <v>65</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>74</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>7</v>
       </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J67" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K67" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" ref="A68:A99" si="1">"13783498257079420"&amp;TEXT(ROW(A68),"00")</f>
         <v>1378349825707942068</v>
@@ -2932,25 +3847,28 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
+        <v>362</v>
+      </c>
+      <c r="D68" t="s">
         <v>66</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>74</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>8</v>
       </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J68" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K68" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942069</v>
@@ -2959,25 +3877,28 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
+        <v>363</v>
+      </c>
+      <c r="D69" t="s">
         <v>67</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>74</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>9</v>
       </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J69" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K69" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942070</v>
@@ -2986,25 +3907,28 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
+        <v>364</v>
+      </c>
+      <c r="D70" t="s">
         <v>68</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>74</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>10</v>
       </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J70" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K70" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942071</v>
@@ -3013,25 +3937,28 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
+        <v>365</v>
+      </c>
+      <c r="D71" t="s">
         <v>69</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>74</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>11</v>
       </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J71" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K71" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942072</v>
@@ -3040,25 +3967,28 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
+        <v>366</v>
+      </c>
+      <c r="D72" t="s">
         <v>70</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>74</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>12</v>
       </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J72" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K72" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942073</v>
@@ -3067,25 +3997,28 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
+        <v>367</v>
+      </c>
+      <c r="D73" t="s">
         <v>71</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>74</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>13</v>
       </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J73" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K73" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942074</v>
@@ -3096,71 +4029,77 @@
       <c r="C74" t="s">
         <v>84</v>
       </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J74" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K74" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942075</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>368</v>
       </c>
       <c r="D75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75" t="s">
         <v>172</v>
       </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J75" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K75" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942076</v>
       </c>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>369</v>
       </c>
       <c r="D76" t="s">
+        <v>183</v>
+      </c>
+      <c r="E76" t="s">
         <v>172</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>2</v>
       </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J76" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K76" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942077</v>
@@ -3169,52 +4108,58 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
+        <v>370</v>
+      </c>
+      <c r="D77" t="s">
         <v>76</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>172</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>3</v>
       </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J77" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K77" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942078</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>371</v>
       </c>
       <c r="D78" t="s">
+        <v>184</v>
+      </c>
+      <c r="E78" t="s">
         <v>172</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>4</v>
       </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J78" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K78" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942079</v>
@@ -3223,25 +4168,28 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
+        <v>372</v>
+      </c>
+      <c r="D79" t="s">
         <v>75</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>172</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>5</v>
       </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J79" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K79" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942080</v>
@@ -3250,25 +4198,28 @@
         <v>77</v>
       </c>
       <c r="C80" t="s">
+        <v>373</v>
+      </c>
+      <c r="D80" t="s">
         <v>77</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>172</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>6</v>
       </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J80" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K80" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942081</v>
@@ -3277,25 +4228,28 @@
         <v>78</v>
       </c>
       <c r="C81" t="s">
+        <v>374</v>
+      </c>
+      <c r="D81" t="s">
         <v>78</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>172</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>7</v>
       </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J81" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K81" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942082</v>
@@ -3304,25 +4258,28 @@
         <v>79</v>
       </c>
       <c r="C82" t="s">
+        <v>375</v>
+      </c>
+      <c r="D82" t="s">
         <v>79</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>172</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>8</v>
       </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J82" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K82" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942083</v>
@@ -3333,17 +4290,17 @@
       <c r="C83" t="s">
         <v>85</v>
       </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J83" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K83" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942084</v>
@@ -3352,25 +4309,28 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
+        <v>376</v>
+      </c>
+      <c r="D84" t="s">
         <v>82</v>
       </c>
-      <c r="D84" t="s">
-        <v>187</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J84" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>185</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K84" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942085</v>
@@ -3379,25 +4339,28 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
+        <v>377</v>
+      </c>
+      <c r="D85" t="s">
         <v>83</v>
       </c>
-      <c r="D85" t="s">
-        <v>187</v>
-      </c>
-      <c r="E85">
+      <c r="E85" t="s">
+        <v>185</v>
+      </c>
+      <c r="F85">
         <v>2</v>
       </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J85" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K85" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942086</v>
@@ -3406,25 +4369,28 @@
         <v>81</v>
       </c>
       <c r="C86" t="s">
+        <v>378</v>
+      </c>
+      <c r="D86" t="s">
         <v>81</v>
       </c>
-      <c r="D86" t="s">
-        <v>187</v>
-      </c>
-      <c r="E86">
+      <c r="E86" t="s">
+        <v>185</v>
+      </c>
+      <c r="F86">
         <v>3</v>
       </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J86" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K86" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942087</v>
@@ -3435,17 +4401,20 @@
       <c r="C87" t="s">
         <v>87</v>
       </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J87" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>88</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K87" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942088</v>
@@ -3454,25 +4423,28 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
+        <v>379</v>
+      </c>
+      <c r="D88" t="s">
         <v>89</v>
       </c>
-      <c r="D88" t="s">
-        <v>188</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J88" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>186</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K88" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942089</v>
@@ -3481,25 +4453,28 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
+        <v>380</v>
+      </c>
+      <c r="D89" t="s">
         <v>90</v>
       </c>
-      <c r="D89" t="s">
-        <v>188</v>
-      </c>
-      <c r="E89">
+      <c r="E89" t="s">
+        <v>186</v>
+      </c>
+      <c r="F89">
         <v>2</v>
       </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J89" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K89" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942090</v>
@@ -3510,17 +4485,17 @@
       <c r="C90" t="s">
         <v>92</v>
       </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J90" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K90" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942091</v>
@@ -3529,25 +4504,28 @@
         <v>96</v>
       </c>
       <c r="C91" t="s">
+        <v>381</v>
+      </c>
+      <c r="D91" t="s">
         <v>96</v>
       </c>
-      <c r="D91" t="s">
-        <v>189</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J91" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>187</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K91" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942092</v>
@@ -3556,25 +4534,28 @@
         <v>97</v>
       </c>
       <c r="C92" t="s">
+        <v>382</v>
+      </c>
+      <c r="D92" t="s">
         <v>97</v>
       </c>
-      <c r="D92" t="s">
-        <v>189</v>
-      </c>
-      <c r="E92">
+      <c r="E92" t="s">
+        <v>187</v>
+      </c>
+      <c r="F92">
         <v>2</v>
       </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J92" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K92" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942093</v>
@@ -3583,25 +4564,28 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
+        <v>383</v>
+      </c>
+      <c r="D93" t="s">
         <v>95</v>
       </c>
-      <c r="D93" t="s">
-        <v>189</v>
-      </c>
-      <c r="E93">
+      <c r="E93" t="s">
+        <v>187</v>
+      </c>
+      <c r="F93">
         <v>3</v>
       </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J93" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K93" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942094</v>
@@ -3610,25 +4594,28 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
+        <v>384</v>
+      </c>
+      <c r="D94" t="s">
         <v>94</v>
       </c>
-      <c r="D94" t="s">
-        <v>189</v>
-      </c>
-      <c r="E94">
+      <c r="E94" t="s">
+        <v>187</v>
+      </c>
+      <c r="F94">
         <v>4</v>
       </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J94" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K94" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942095</v>
@@ -3637,25 +4624,28 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
+        <v>385</v>
+      </c>
+      <c r="D95" t="s">
         <v>98</v>
       </c>
-      <c r="D95" t="s">
-        <v>189</v>
-      </c>
-      <c r="E95">
+      <c r="E95" t="s">
+        <v>187</v>
+      </c>
+      <c r="F95">
         <v>5</v>
       </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J95" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K95" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942096</v>
@@ -3664,25 +4654,28 @@
         <v>93</v>
       </c>
       <c r="C96" t="s">
+        <v>386</v>
+      </c>
+      <c r="D96" t="s">
         <v>93</v>
       </c>
-      <c r="D96" t="s">
-        <v>189</v>
-      </c>
-      <c r="E96">
+      <c r="E96" t="s">
+        <v>187</v>
+      </c>
+      <c r="F96">
         <v>6</v>
       </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J96" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K96" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942097</v>
@@ -3693,17 +4686,17 @@
       <c r="C97" t="s">
         <v>100</v>
       </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J97" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K97" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942098</v>
@@ -3712,22 +4705,28 @@
         <v>102</v>
       </c>
       <c r="C98" t="s">
+        <v>387</v>
+      </c>
+      <c r="D98" t="s">
         <v>102</v>
       </c>
-      <c r="D98" t="s">
-        <v>190</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J98" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K98" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>1378349825707942099</v>
@@ -3736,22 +4735,28 @@
         <v>103</v>
       </c>
       <c r="C99" t="s">
+        <v>388</v>
+      </c>
+      <c r="D99" t="s">
         <v>103</v>
       </c>
-      <c r="D99" t="s">
-        <v>190</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J99" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K99" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f>"1378349825707942"&amp;TEXT(ROW(A100),"00")</f>
         <v>1378349825707942100</v>
@@ -3760,22 +4765,28 @@
         <v>104</v>
       </c>
       <c r="C100" t="s">
+        <v>389</v>
+      </c>
+      <c r="D100" t="s">
         <v>104</v>
       </c>
-      <c r="D100" t="s">
-        <v>190</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J100" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K100" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f t="shared" ref="A101:A164" si="2">"1378349825707942"&amp;TEXT(ROW(A101),"00")</f>
         <v>1378349825707942101</v>
@@ -3784,22 +4795,28 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
+        <v>390</v>
+      </c>
+      <c r="D101" t="s">
         <v>101</v>
       </c>
-      <c r="D101" t="s">
-        <v>190</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J101" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>188</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K101" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942102</v>
@@ -3810,17 +4827,17 @@
       <c r="C102" t="s">
         <v>129</v>
       </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J102" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K102" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942103</v>
@@ -3828,26 +4845,29 @@
       <c r="B103" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" t="s">
+        <v>391</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D103" t="s">
-        <v>191</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J103" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>189</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K103" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942104</v>
@@ -3856,25 +4876,28 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
+        <v>392</v>
+      </c>
+      <c r="D104" t="s">
         <v>106</v>
       </c>
-      <c r="D104" t="s">
-        <v>191</v>
-      </c>
-      <c r="E104">
+      <c r="E104" t="s">
+        <v>189</v>
+      </c>
+      <c r="F104">
         <v>2</v>
       </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J104" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K104" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942105</v>
@@ -3883,25 +4906,28 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
+        <v>393</v>
+      </c>
+      <c r="D105" t="s">
         <v>107</v>
       </c>
-      <c r="D105" t="s">
-        <v>191</v>
-      </c>
-      <c r="E105">
+      <c r="E105" t="s">
+        <v>189</v>
+      </c>
+      <c r="F105">
         <v>3</v>
       </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J105" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K105" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942106</v>
@@ -3910,25 +4936,28 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
+        <v>394</v>
+      </c>
+      <c r="D106" t="s">
         <v>108</v>
       </c>
-      <c r="D106" t="s">
-        <v>191</v>
-      </c>
-      <c r="E106">
+      <c r="E106" t="s">
+        <v>189</v>
+      </c>
+      <c r="F106">
         <v>4</v>
       </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J106" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K106" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942107</v>
@@ -3937,25 +4966,28 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
+        <v>395</v>
+      </c>
+      <c r="D107" t="s">
         <v>109</v>
       </c>
-      <c r="D107" t="s">
-        <v>191</v>
-      </c>
-      <c r="E107">
+      <c r="E107" t="s">
+        <v>189</v>
+      </c>
+      <c r="F107">
         <v>5</v>
       </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J107" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K107" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942108</v>
@@ -3964,25 +4996,28 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
+        <v>396</v>
+      </c>
+      <c r="D108" t="s">
         <v>110</v>
       </c>
-      <c r="D108" t="s">
-        <v>191</v>
-      </c>
-      <c r="E108">
+      <c r="E108" t="s">
+        <v>189</v>
+      </c>
+      <c r="F108">
         <v>6</v>
       </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J108" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K108" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942109</v>
@@ -3991,25 +5026,28 @@
         <v>115</v>
       </c>
       <c r="C109" t="s">
+        <v>397</v>
+      </c>
+      <c r="D109" t="s">
         <v>115</v>
       </c>
-      <c r="D109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E109">
+      <c r="E109" t="s">
+        <v>189</v>
+      </c>
+      <c r="F109">
         <v>7</v>
       </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J109" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K109" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942110</v>
@@ -4018,25 +5056,28 @@
         <v>116</v>
       </c>
       <c r="C110" t="s">
+        <v>398</v>
+      </c>
+      <c r="D110" t="s">
         <v>116</v>
       </c>
-      <c r="D110" t="s">
-        <v>191</v>
-      </c>
-      <c r="E110">
+      <c r="E110" t="s">
+        <v>189</v>
+      </c>
+      <c r="F110">
         <v>8</v>
       </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J110" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K110" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942111</v>
@@ -4045,25 +5086,28 @@
         <v>117</v>
       </c>
       <c r="C111" t="s">
+        <v>399</v>
+      </c>
+      <c r="D111" t="s">
         <v>117</v>
       </c>
-      <c r="D111" t="s">
-        <v>191</v>
-      </c>
-      <c r="E111">
+      <c r="E111" t="s">
+        <v>189</v>
+      </c>
+      <c r="F111">
         <v>9</v>
       </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J111" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K111" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942112</v>
@@ -4072,25 +5116,28 @@
         <v>118</v>
       </c>
       <c r="C112" t="s">
+        <v>400</v>
+      </c>
+      <c r="D112" t="s">
         <v>118</v>
       </c>
-      <c r="D112" t="s">
-        <v>191</v>
-      </c>
-      <c r="E112">
+      <c r="E112" t="s">
+        <v>189</v>
+      </c>
+      <c r="F112">
         <v>10</v>
       </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J112" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K112" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942113</v>
@@ -4099,25 +5146,28 @@
         <v>119</v>
       </c>
       <c r="C113" t="s">
+        <v>401</v>
+      </c>
+      <c r="D113" t="s">
         <v>119</v>
       </c>
-      <c r="D113" t="s">
-        <v>191</v>
-      </c>
-      <c r="E113">
+      <c r="E113" t="s">
+        <v>189</v>
+      </c>
+      <c r="F113">
         <v>11</v>
       </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="H113" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J113" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K113" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942114</v>
@@ -4126,25 +5176,28 @@
         <v>120</v>
       </c>
       <c r="C114" t="s">
+        <v>402</v>
+      </c>
+      <c r="D114" t="s">
         <v>120</v>
       </c>
-      <c r="D114" t="s">
-        <v>191</v>
-      </c>
-      <c r="E114">
+      <c r="E114" t="s">
+        <v>189</v>
+      </c>
+      <c r="F114">
         <v>12</v>
       </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J114" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K114" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942115</v>
@@ -4153,25 +5206,28 @@
         <v>123</v>
       </c>
       <c r="C115" t="s">
+        <v>403</v>
+      </c>
+      <c r="D115" t="s">
         <v>123</v>
       </c>
-      <c r="D115" t="s">
-        <v>191</v>
-      </c>
-      <c r="E115">
+      <c r="E115" t="s">
+        <v>189</v>
+      </c>
+      <c r="F115">
         <v>13</v>
       </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J115" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K115" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942116</v>
@@ -4180,25 +5236,28 @@
         <v>124</v>
       </c>
       <c r="C116" t="s">
+        <v>404</v>
+      </c>
+      <c r="D116" t="s">
         <v>124</v>
       </c>
-      <c r="D116" t="s">
-        <v>191</v>
-      </c>
-      <c r="E116">
+      <c r="E116" t="s">
+        <v>189</v>
+      </c>
+      <c r="F116">
         <v>14</v>
       </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J116" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K116" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942117</v>
@@ -4207,25 +5266,28 @@
         <v>125</v>
       </c>
       <c r="C117" t="s">
+        <v>405</v>
+      </c>
+      <c r="D117" t="s">
         <v>125</v>
       </c>
-      <c r="D117" t="s">
-        <v>191</v>
-      </c>
-      <c r="E117">
+      <c r="E117" t="s">
+        <v>189</v>
+      </c>
+      <c r="F117">
         <v>15</v>
       </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J117" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K117" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942118</v>
@@ -4234,25 +5296,28 @@
         <v>126</v>
       </c>
       <c r="C118" t="s">
+        <v>406</v>
+      </c>
+      <c r="D118" t="s">
         <v>126</v>
       </c>
-      <c r="D118" t="s">
-        <v>191</v>
-      </c>
-      <c r="E118">
+      <c r="E118" t="s">
+        <v>189</v>
+      </c>
+      <c r="F118">
         <v>16</v>
       </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J118" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K118" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942119</v>
@@ -4261,25 +5326,28 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
+        <v>407</v>
+      </c>
+      <c r="D119" t="s">
         <v>121</v>
       </c>
-      <c r="D119" t="s">
-        <v>191</v>
-      </c>
-      <c r="E119">
+      <c r="E119" t="s">
+        <v>189</v>
+      </c>
+      <c r="F119">
         <v>17</v>
       </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
-      <c r="H119" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J119" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K119" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942120</v>
@@ -4288,25 +5356,28 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
+        <v>408</v>
+      </c>
+      <c r="D120" t="s">
         <v>122</v>
       </c>
-      <c r="D120" t="s">
-        <v>191</v>
-      </c>
-      <c r="E120">
+      <c r="E120" t="s">
+        <v>189</v>
+      </c>
+      <c r="F120">
         <v>18</v>
       </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
-      <c r="H120" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J120" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K120" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942121</v>
@@ -4315,25 +5386,28 @@
         <v>111</v>
       </c>
       <c r="C121" t="s">
+        <v>409</v>
+      </c>
+      <c r="D121" t="s">
         <v>111</v>
       </c>
-      <c r="D121" t="s">
-        <v>191</v>
-      </c>
-      <c r="E121">
+      <c r="E121" t="s">
+        <v>189</v>
+      </c>
+      <c r="F121">
         <v>19</v>
       </c>
-      <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="H121" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J121" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K121" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942122</v>
@@ -4342,25 +5416,28 @@
         <v>112</v>
       </c>
       <c r="C122" t="s">
+        <v>410</v>
+      </c>
+      <c r="D122" t="s">
         <v>112</v>
       </c>
-      <c r="D122" t="s">
-        <v>191</v>
-      </c>
-      <c r="E122">
+      <c r="E122" t="s">
+        <v>189</v>
+      </c>
+      <c r="F122">
         <v>20</v>
       </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
-      <c r="H122" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J122" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K122" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942123</v>
@@ -4369,25 +5446,28 @@
         <v>113</v>
       </c>
       <c r="C123" t="s">
+        <v>411</v>
+      </c>
+      <c r="D123" t="s">
         <v>113</v>
       </c>
-      <c r="D123" t="s">
-        <v>191</v>
-      </c>
-      <c r="E123">
+      <c r="E123" t="s">
+        <v>189</v>
+      </c>
+      <c r="F123">
         <v>21</v>
       </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J123" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K123" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942124</v>
@@ -4396,25 +5476,28 @@
         <v>114</v>
       </c>
       <c r="C124" t="s">
+        <v>412</v>
+      </c>
+      <c r="D124" t="s">
         <v>114</v>
       </c>
-      <c r="D124" t="s">
-        <v>191</v>
-      </c>
-      <c r="E124">
+      <c r="E124" t="s">
+        <v>189</v>
+      </c>
+      <c r="F124">
         <v>22</v>
       </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-      <c r="H124" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J124" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K124" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942125</v>
@@ -4423,25 +5506,28 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>182</v>
+        <v>413</v>
       </c>
       <c r="D125" t="s">
-        <v>191</v>
-      </c>
-      <c r="E125">
+        <v>127</v>
+      </c>
+      <c r="E125" t="s">
+        <v>189</v>
+      </c>
+      <c r="F125">
         <v>23</v>
       </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
-      <c r="H125" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J125" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K125" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942126</v>
@@ -4452,17 +5538,17 @@
       <c r="C126" t="s">
         <v>131</v>
       </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-      <c r="H126" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J126" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K126" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942127</v>
@@ -4470,26 +5556,29 @@
       <c r="B127" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" t="s">
+        <v>414</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D127" t="s">
-        <v>192</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="H127" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J127" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E127" t="s">
+        <v>190</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K127" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942128</v>
@@ -4497,26 +5586,29 @@
       <c r="B128" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" t="s">
+        <v>415</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D128" t="s">
-        <v>192</v>
-      </c>
-      <c r="E128">
+      <c r="E128" t="s">
+        <v>190</v>
+      </c>
+      <c r="F128">
         <v>2</v>
       </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-      <c r="H128" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J128" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K128" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942129</v>
@@ -4525,25 +5617,28 @@
         <v>133</v>
       </c>
       <c r="C129" t="s">
+        <v>416</v>
+      </c>
+      <c r="D129" t="s">
         <v>133</v>
       </c>
-      <c r="D129" t="s">
-        <v>192</v>
-      </c>
-      <c r="E129">
+      <c r="E129" t="s">
+        <v>190</v>
+      </c>
+      <c r="F129">
         <v>3</v>
       </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J129" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K129" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942130</v>
@@ -4554,17 +5649,17 @@
       <c r="C130" t="s">
         <v>136</v>
       </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-      <c r="H130" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J130" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K130" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942131</v>
@@ -4573,25 +5668,28 @@
         <v>138</v>
       </c>
       <c r="C131" t="s">
+        <v>263</v>
+      </c>
+      <c r="D131" t="s">
         <v>138</v>
       </c>
-      <c r="D131" t="s">
-        <v>193</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J131" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E131" t="s">
+        <v>191</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K131" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942132</v>
@@ -4600,25 +5698,28 @@
         <v>139</v>
       </c>
       <c r="C132" t="s">
+        <v>264</v>
+      </c>
+      <c r="D132" t="s">
         <v>139</v>
       </c>
-      <c r="D132" t="s">
-        <v>193</v>
-      </c>
-      <c r="E132">
+      <c r="E132" t="s">
+        <v>191</v>
+      </c>
+      <c r="F132">
         <v>2</v>
       </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J132" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K132" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942133</v>
@@ -4627,25 +5728,28 @@
         <v>140</v>
       </c>
       <c r="C133" t="s">
+        <v>265</v>
+      </c>
+      <c r="D133" t="s">
         <v>140</v>
       </c>
-      <c r="D133" t="s">
-        <v>193</v>
-      </c>
-      <c r="E133">
+      <c r="E133" t="s">
+        <v>191</v>
+      </c>
+      <c r="F133">
         <v>3</v>
       </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-      <c r="H133" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J133" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K133" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942134</v>
@@ -4654,25 +5758,28 @@
         <v>141</v>
       </c>
       <c r="C134" t="s">
+        <v>266</v>
+      </c>
+      <c r="D134" t="s">
         <v>141</v>
       </c>
-      <c r="D134" t="s">
-        <v>193</v>
-      </c>
-      <c r="E134">
+      <c r="E134" t="s">
+        <v>191</v>
+      </c>
+      <c r="F134">
         <v>4</v>
       </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-      <c r="H134" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J134" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K134" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942135</v>
@@ -4681,25 +5788,28 @@
         <v>142</v>
       </c>
       <c r="C135" t="s">
+        <v>267</v>
+      </c>
+      <c r="D135" t="s">
         <v>142</v>
       </c>
-      <c r="D135" t="s">
-        <v>193</v>
-      </c>
-      <c r="E135">
+      <c r="E135" t="s">
+        <v>191</v>
+      </c>
+      <c r="F135">
         <v>5</v>
       </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="H135" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J135" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K135" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942136</v>
@@ -4708,25 +5818,28 @@
         <v>143</v>
       </c>
       <c r="C136" t="s">
+        <v>268</v>
+      </c>
+      <c r="D136" t="s">
         <v>143</v>
       </c>
-      <c r="D136" t="s">
-        <v>193</v>
-      </c>
-      <c r="E136">
+      <c r="E136" t="s">
+        <v>191</v>
+      </c>
+      <c r="F136">
         <v>6</v>
       </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="H136" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J136" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K136" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942137</v>
@@ -4735,25 +5848,28 @@
         <v>144</v>
       </c>
       <c r="C137" t="s">
+        <v>269</v>
+      </c>
+      <c r="D137" t="s">
         <v>144</v>
       </c>
-      <c r="D137" t="s">
-        <v>193</v>
-      </c>
-      <c r="E137">
+      <c r="E137" t="s">
+        <v>191</v>
+      </c>
+      <c r="F137">
         <v>7</v>
       </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-      <c r="H137" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J137" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K137" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942138</v>
@@ -4762,25 +5878,28 @@
         <v>145</v>
       </c>
       <c r="C138" t="s">
+        <v>270</v>
+      </c>
+      <c r="D138" t="s">
         <v>145</v>
       </c>
-      <c r="D138" t="s">
-        <v>193</v>
-      </c>
-      <c r="E138">
+      <c r="E138" t="s">
+        <v>191</v>
+      </c>
+      <c r="F138">
         <v>8</v>
       </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="H138" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J138" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K138" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942139</v>
@@ -4789,25 +5908,28 @@
         <v>146</v>
       </c>
       <c r="C139" t="s">
+        <v>271</v>
+      </c>
+      <c r="D139" t="s">
         <v>146</v>
       </c>
-      <c r="D139" t="s">
-        <v>193</v>
-      </c>
-      <c r="E139">
+      <c r="E139" t="s">
+        <v>191</v>
+      </c>
+      <c r="F139">
         <v>9</v>
       </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="H139" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J139" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K139" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942140</v>
@@ -4816,25 +5938,28 @@
         <v>147</v>
       </c>
       <c r="C140" t="s">
+        <v>272</v>
+      </c>
+      <c r="D140" t="s">
         <v>147</v>
       </c>
-      <c r="D140" t="s">
-        <v>193</v>
-      </c>
-      <c r="E140">
+      <c r="E140" t="s">
+        <v>191</v>
+      </c>
+      <c r="F140">
         <v>10</v>
       </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-      <c r="H140" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J140" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K140" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942141</v>
@@ -4843,25 +5968,28 @@
         <v>148</v>
       </c>
       <c r="C141" t="s">
+        <v>273</v>
+      </c>
+      <c r="D141" t="s">
         <v>148</v>
       </c>
-      <c r="D141" t="s">
-        <v>193</v>
-      </c>
-      <c r="E141">
+      <c r="E141" t="s">
+        <v>191</v>
+      </c>
+      <c r="F141">
         <v>11</v>
       </c>
-      <c r="G141">
-        <v>1</v>
-      </c>
-      <c r="H141" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J141" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K141" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942142</v>
@@ -4870,25 +5998,28 @@
         <v>149</v>
       </c>
       <c r="C142" t="s">
+        <v>274</v>
+      </c>
+      <c r="D142" t="s">
         <v>149</v>
       </c>
-      <c r="D142" t="s">
-        <v>193</v>
-      </c>
-      <c r="E142">
+      <c r="E142" t="s">
+        <v>191</v>
+      </c>
+      <c r="F142">
         <v>12</v>
       </c>
-      <c r="G142">
-        <v>1</v>
-      </c>
-      <c r="H142" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J142" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K142" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942143</v>
@@ -4897,25 +6028,28 @@
         <v>150</v>
       </c>
       <c r="C143" t="s">
+        <v>275</v>
+      </c>
+      <c r="D143" t="s">
         <v>150</v>
       </c>
-      <c r="D143" t="s">
-        <v>193</v>
-      </c>
-      <c r="E143">
+      <c r="E143" t="s">
+        <v>191</v>
+      </c>
+      <c r="F143">
         <v>13</v>
       </c>
-      <c r="G143">
-        <v>1</v>
-      </c>
-      <c r="H143" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J143" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K143" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942144</v>
@@ -4924,25 +6058,28 @@
         <v>151</v>
       </c>
       <c r="C144" t="s">
+        <v>276</v>
+      </c>
+      <c r="D144" t="s">
         <v>151</v>
       </c>
-      <c r="D144" t="s">
-        <v>193</v>
-      </c>
-      <c r="E144">
+      <c r="E144" t="s">
+        <v>191</v>
+      </c>
+      <c r="F144">
         <v>14</v>
       </c>
-      <c r="G144">
-        <v>1</v>
-      </c>
-      <c r="H144" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J144" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K144" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942145</v>
@@ -4951,25 +6088,28 @@
         <v>152</v>
       </c>
       <c r="C145" t="s">
+        <v>277</v>
+      </c>
+      <c r="D145" t="s">
         <v>152</v>
       </c>
-      <c r="D145" t="s">
-        <v>193</v>
-      </c>
-      <c r="E145">
+      <c r="E145" t="s">
+        <v>191</v>
+      </c>
+      <c r="F145">
         <v>15</v>
       </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-      <c r="H145" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J145" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K145" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942146</v>
@@ -4978,25 +6118,28 @@
         <v>137</v>
       </c>
       <c r="C146" t="s">
+        <v>278</v>
+      </c>
+      <c r="D146" t="s">
         <v>137</v>
       </c>
-      <c r="D146" t="s">
-        <v>193</v>
-      </c>
-      <c r="E146">
+      <c r="E146" t="s">
+        <v>191</v>
+      </c>
+      <c r="F146">
         <v>16</v>
       </c>
-      <c r="G146">
-        <v>1</v>
-      </c>
-      <c r="H146" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J146" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K146" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942147</v>
@@ -5007,17 +6150,17 @@
       <c r="C147" t="s">
         <v>157</v>
       </c>
-      <c r="G147">
-        <v>1</v>
-      </c>
-      <c r="H147" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J147" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K147" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942148</v>
@@ -5026,25 +6169,28 @@
         <v>153</v>
       </c>
       <c r="C148" t="s">
+        <v>279</v>
+      </c>
+      <c r="D148" t="s">
         <v>153</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>159</v>
       </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-      <c r="H148" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J148" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K148" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942149</v>
@@ -5053,25 +6199,28 @@
         <v>155</v>
       </c>
       <c r="C149" t="s">
+        <v>280</v>
+      </c>
+      <c r="D149" t="s">
         <v>155</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>159</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>2</v>
       </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-      <c r="H149" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J149" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K149" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942150</v>
@@ -5080,25 +6229,28 @@
         <v>156</v>
       </c>
       <c r="C150" t="s">
+        <v>281</v>
+      </c>
+      <c r="D150" t="s">
         <v>156</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>159</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>3</v>
       </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-      <c r="H150" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J150" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K150" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942151</v>
@@ -5107,25 +6259,28 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
+        <v>282</v>
+      </c>
+      <c r="D151" t="s">
         <v>154</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>159</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>4</v>
       </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-      <c r="H151" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J151" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K151" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942152</v>
@@ -5136,17 +6291,17 @@
       <c r="C152" t="s">
         <v>171</v>
       </c>
-      <c r="G152">
-        <v>1</v>
-      </c>
-      <c r="H152" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J152" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K152" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942153</v>
@@ -5155,25 +6310,28 @@
         <v>161</v>
       </c>
       <c r="C153" t="s">
+        <v>283</v>
+      </c>
+      <c r="D153" t="s">
         <v>161</v>
       </c>
-      <c r="D153" t="s">
-        <v>194</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-      <c r="H153" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J153" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E153" t="s">
+        <v>192</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K153" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942154</v>
@@ -5182,25 +6340,28 @@
         <v>162</v>
       </c>
       <c r="C154" t="s">
+        <v>284</v>
+      </c>
+      <c r="D154" t="s">
         <v>162</v>
       </c>
-      <c r="D154" t="s">
-        <v>194</v>
-      </c>
-      <c r="E154">
+      <c r="E154" t="s">
+        <v>192</v>
+      </c>
+      <c r="F154">
         <v>2</v>
       </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-      <c r="H154" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J154" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K154" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942155</v>
@@ -5209,25 +6370,28 @@
         <v>163</v>
       </c>
       <c r="C155" t="s">
+        <v>285</v>
+      </c>
+      <c r="D155" t="s">
         <v>163</v>
       </c>
-      <c r="D155" t="s">
-        <v>194</v>
-      </c>
-      <c r="E155">
+      <c r="E155" t="s">
+        <v>192</v>
+      </c>
+      <c r="F155">
         <v>3</v>
       </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J155" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K155" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942156</v>
@@ -5236,25 +6400,28 @@
         <v>164</v>
       </c>
       <c r="C156" t="s">
+        <v>286</v>
+      </c>
+      <c r="D156" t="s">
         <v>164</v>
       </c>
-      <c r="D156" t="s">
-        <v>194</v>
-      </c>
-      <c r="E156">
+      <c r="E156" t="s">
+        <v>192</v>
+      </c>
+      <c r="F156">
         <v>4</v>
       </c>
-      <c r="G156">
-        <v>1</v>
-      </c>
-      <c r="H156" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J156" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K156" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942157</v>
@@ -5263,25 +6430,28 @@
         <v>165</v>
       </c>
       <c r="C157" t="s">
+        <v>287</v>
+      </c>
+      <c r="D157" t="s">
         <v>165</v>
       </c>
-      <c r="D157" t="s">
-        <v>194</v>
-      </c>
-      <c r="E157">
+      <c r="E157" t="s">
+        <v>192</v>
+      </c>
+      <c r="F157">
         <v>5</v>
       </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-      <c r="H157" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J157" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K157" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942158</v>
@@ -5290,25 +6460,28 @@
         <v>166</v>
       </c>
       <c r="C158" t="s">
+        <v>288</v>
+      </c>
+      <c r="D158" t="s">
         <v>166</v>
       </c>
-      <c r="D158" t="s">
-        <v>194</v>
-      </c>
-      <c r="E158">
+      <c r="E158" t="s">
+        <v>192</v>
+      </c>
+      <c r="F158">
         <v>6</v>
       </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
-      <c r="H158" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J158" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K158" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942159</v>
@@ -5317,25 +6490,28 @@
         <v>167</v>
       </c>
       <c r="C159" t="s">
+        <v>289</v>
+      </c>
+      <c r="D159" t="s">
         <v>167</v>
       </c>
-      <c r="D159" t="s">
-        <v>194</v>
-      </c>
-      <c r="E159">
+      <c r="E159" t="s">
+        <v>192</v>
+      </c>
+      <c r="F159">
         <v>7</v>
       </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-      <c r="H159" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J159" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K159" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942160</v>
@@ -5344,25 +6520,28 @@
         <v>168</v>
       </c>
       <c r="C160" t="s">
+        <v>290</v>
+      </c>
+      <c r="D160" t="s">
         <v>168</v>
       </c>
-      <c r="D160" t="s">
-        <v>194</v>
-      </c>
-      <c r="E160">
+      <c r="E160" t="s">
+        <v>192</v>
+      </c>
+      <c r="F160">
         <v>8</v>
       </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-      <c r="H160" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J160" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K160" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942161</v>
@@ -5371,25 +6550,28 @@
         <v>169</v>
       </c>
       <c r="C161" t="s">
+        <v>291</v>
+      </c>
+      <c r="D161" t="s">
         <v>169</v>
       </c>
-      <c r="D161" t="s">
-        <v>194</v>
-      </c>
-      <c r="E161">
+      <c r="E161" t="s">
+        <v>192</v>
+      </c>
+      <c r="F161">
         <v>9</v>
       </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-      <c r="H161" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J161" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K161" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942162</v>
@@ -5400,17 +6582,17 @@
       <c r="C162" t="s">
         <v>174</v>
       </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-      <c r="H162" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J162" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K162" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942163</v>
@@ -5419,25 +6601,28 @@
         <v>175</v>
       </c>
       <c r="C163" t="s">
+        <v>292</v>
+      </c>
+      <c r="D163" t="s">
         <v>175</v>
       </c>
-      <c r="D163" t="s">
-        <v>195</v>
-      </c>
-      <c r="E163">
-        <v>1</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="H163" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J163" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E163" t="s">
+        <v>193</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K163" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>1378349825707942164</v>
@@ -5446,254 +6631,1510 @@
         <v>176</v>
       </c>
       <c r="C164" t="s">
+        <v>293</v>
+      </c>
+      <c r="D164" t="s">
         <v>176</v>
       </c>
-      <c r="D164" t="s">
-        <v>195</v>
-      </c>
-      <c r="E164">
+      <c r="E164" t="s">
+        <v>193</v>
+      </c>
+      <c r="F164">
         <v>2</v>
       </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-      <c r="H164" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J164" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K164" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
-        <f t="shared" ref="A165:A173" si="3">"1378349825707942"&amp;TEXT(ROW(A165),"00")</f>
+        <f>"1378349825707942"&amp;TEXT(ROW(A165),"00")</f>
         <v>1378349825707942165</v>
       </c>
       <c r="B165" t="s">
-        <v>177</v>
+        <v>419</v>
       </c>
       <c r="C165" t="s">
-        <v>178</v>
-      </c>
-      <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="H165" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J165" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K165" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A166:A173" si="3">"1378349825707942"&amp;TEXT(ROW(A166),"00")</f>
         <v>1378349825707942166</v>
       </c>
       <c r="B166" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="C166" t="s">
-        <v>179</v>
+        <v>422</v>
       </c>
       <c r="D166" t="s">
-        <v>196</v>
-      </c>
-      <c r="E166">
-        <v>1</v>
-      </c>
-      <c r="G166">
-        <v>1</v>
-      </c>
-      <c r="H166" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J166" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="E166" t="s">
+        <v>194</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K166" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
         <f t="shared" si="3"/>
         <v>1378349825707942167</v>
       </c>
       <c r="B167" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C167" t="s">
-        <v>180</v>
+        <v>423</v>
       </c>
       <c r="D167" t="s">
-        <v>196</v>
-      </c>
-      <c r="E167">
+        <v>207</v>
+      </c>
+      <c r="E167" t="s">
+        <v>194</v>
+      </c>
+      <c r="F167">
         <v>2</v>
       </c>
-      <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="H167" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J167" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K167" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
         <f t="shared" si="3"/>
         <v>1378349825707942168</v>
       </c>
       <c r="B168" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C168" t="s">
-        <v>181</v>
+        <v>424</v>
       </c>
       <c r="D168" t="s">
-        <v>196</v>
-      </c>
-      <c r="E168">
+        <v>208</v>
+      </c>
+      <c r="E168" t="s">
+        <v>194</v>
+      </c>
+      <c r="F168">
         <v>3</v>
       </c>
-      <c r="G168">
-        <v>1</v>
-      </c>
-      <c r="H168" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J168" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K168" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
         <f t="shared" si="3"/>
         <v>1378349825707942169</v>
       </c>
       <c r="B169" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C169" t="s">
-        <v>198</v>
-      </c>
-      <c r="G169">
-        <v>1</v>
-      </c>
-      <c r="H169" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J169" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+      <c r="D169" t="s">
+        <v>209</v>
+      </c>
+      <c r="E169" t="s">
+        <v>194</v>
+      </c>
+      <c r="F169">
+        <v>4</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K169" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
         <f t="shared" si="3"/>
         <v>1378349825707942170</v>
       </c>
       <c r="B170" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C170" t="s">
-        <v>203</v>
+        <v>426</v>
       </c>
       <c r="D170" t="s">
-        <v>207</v>
-      </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-      <c r="G170">
-        <v>1</v>
-      </c>
-      <c r="H170" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J170" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="E170" t="s">
+        <v>194</v>
+      </c>
+      <c r="F170">
+        <v>5</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K170" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
         <f t="shared" si="3"/>
         <v>1378349825707942171</v>
       </c>
       <c r="B171" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C171" t="s">
-        <v>204</v>
+        <v>427</v>
       </c>
       <c r="D171" t="s">
-        <v>207</v>
-      </c>
-      <c r="E171">
-        <v>2</v>
-      </c>
-      <c r="G171">
-        <v>1</v>
-      </c>
-      <c r="H171" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J171" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="E171" t="s">
+        <v>194</v>
+      </c>
+      <c r="F171">
+        <v>6</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K171" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
         <f t="shared" si="3"/>
         <v>1378349825707942172</v>
       </c>
       <c r="B172" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C172" t="s">
-        <v>205</v>
+        <v>428</v>
       </c>
       <c r="D172" t="s">
-        <v>207</v>
-      </c>
-      <c r="E172">
-        <v>3</v>
-      </c>
-      <c r="G172">
-        <v>1</v>
-      </c>
-      <c r="H172" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J172" s="1">
-        <v>44335.972106423615</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="E172" t="s">
+        <v>194</v>
+      </c>
+      <c r="F172">
+        <v>7</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K172" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
         <f t="shared" si="3"/>
         <v>1378349825707942173</v>
       </c>
       <c r="B173" t="s">
+        <v>421</v>
+      </c>
+      <c r="C173" t="s">
+        <v>429</v>
+      </c>
+      <c r="D173" t="s">
+        <v>421</v>
+      </c>
+      <c r="E173" t="s">
+        <v>194</v>
+      </c>
+      <c r="F173">
+        <v>8</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K173" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" t="str">
+        <f t="shared" ref="A174:A177" si="4">"1378349825707942"&amp;TEXT(ROW(A174),"00")</f>
+        <v>1378349825707942174</v>
+      </c>
+      <c r="B174" t="s">
+        <v>177</v>
+      </c>
+      <c r="C174" t="s">
+        <v>178</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K174" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" t="str">
+        <f t="shared" si="4"/>
+        <v>1378349825707942175</v>
+      </c>
+      <c r="B175" t="s">
+        <v>179</v>
+      </c>
+      <c r="C175" t="s">
+        <v>294</v>
+      </c>
+      <c r="D175" t="s">
+        <v>179</v>
+      </c>
+      <c r="E175" t="s">
+        <v>205</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K175" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176" t="str">
+        <f t="shared" si="4"/>
+        <v>1378349825707942176</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
+      <c r="C176" t="s">
+        <v>295</v>
+      </c>
+      <c r="D176" t="s">
+        <v>180</v>
+      </c>
+      <c r="E176" t="s">
+        <v>205</v>
+      </c>
+      <c r="F176">
+        <v>2</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K176" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177" t="str">
+        <f t="shared" si="4"/>
+        <v>1378349825707942177</v>
+      </c>
+      <c r="B177" t="s">
+        <v>181</v>
+      </c>
+      <c r="C177" t="s">
+        <v>296</v>
+      </c>
+      <c r="D177" t="s">
+        <v>181</v>
+      </c>
+      <c r="E177" t="s">
+        <v>205</v>
+      </c>
+      <c r="F177">
+        <v>3</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K177" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A178),"00")</f>
+        <v>1378349825707942178</v>
+      </c>
+      <c r="B178" t="s">
+        <v>418</v>
+      </c>
+      <c r="C178" t="s">
+        <v>430</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K178" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A179),"00")</f>
+        <v>1378349825707942179</v>
+      </c>
+      <c r="B179" t="s">
+        <v>206</v>
+      </c>
+      <c r="C179" t="s">
+        <v>237</v>
+      </c>
+      <c r="D179">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E179" t="s">
+        <v>417</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K179" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A180),"00")</f>
+        <v>1378349825707942180</v>
+      </c>
+      <c r="B180" t="s">
+        <v>207</v>
+      </c>
+      <c r="C180" t="s">
+        <v>238</v>
+      </c>
+      <c r="D180">
+        <v>7.8</v>
+      </c>
+      <c r="E180" t="s">
+        <v>417</v>
+      </c>
+      <c r="F180">
+        <v>2</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K180" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A181),"00")</f>
+        <v>1378349825707942181</v>
+      </c>
+      <c r="B181" t="s">
+        <v>208</v>
+      </c>
+      <c r="C181" t="s">
+        <v>239</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>417</v>
+      </c>
+      <c r="F181">
+        <v>3</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K181" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A182),"00")</f>
+        <v>1378349825707942182</v>
+      </c>
+      <c r="B182" t="s">
+        <v>209</v>
+      </c>
+      <c r="C182" t="s">
+        <v>240</v>
+      </c>
+      <c r="D182">
+        <v>4.7</v>
+      </c>
+      <c r="E182" t="s">
+        <v>417</v>
+      </c>
+      <c r="F182">
+        <v>4</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K182" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A183),"00")</f>
+        <v>1378349825707942183</v>
+      </c>
+      <c r="B183" t="s">
+        <v>210</v>
+      </c>
+      <c r="C183" t="s">
+        <v>241</v>
+      </c>
+      <c r="D183">
+        <v>3.3</v>
+      </c>
+      <c r="E183" t="s">
+        <v>417</v>
+      </c>
+      <c r="F183">
+        <v>5</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K183" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A184),"00")</f>
+        <v>1378349825707942184</v>
+      </c>
+      <c r="B184" t="s">
+        <v>211</v>
+      </c>
+      <c r="C184" t="s">
+        <v>242</v>
+      </c>
+      <c r="D184">
+        <v>2.7</v>
+      </c>
+      <c r="E184" t="s">
+        <v>417</v>
+      </c>
+      <c r="F184">
+        <v>6</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K184" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A185),"00")</f>
+        <v>1378349825707942185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>212</v>
+      </c>
+      <c r="C185" t="s">
+        <v>243</v>
+      </c>
+      <c r="D185">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E185" t="s">
+        <v>417</v>
+      </c>
+      <c r="F185">
+        <v>7</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K185" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A186),"00")</f>
+        <v>1378349825707942186</v>
+      </c>
+      <c r="B186" t="s">
+        <v>213</v>
+      </c>
+      <c r="C186" t="s">
+        <v>244</v>
+      </c>
+      <c r="D186">
+        <v>2.9</v>
+      </c>
+      <c r="E186" t="s">
+        <v>417</v>
+      </c>
+      <c r="F186">
+        <v>8</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K186" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A187),"00")</f>
+        <v>1378349825707942187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>214</v>
+      </c>
+      <c r="C187" t="s">
+        <v>245</v>
+      </c>
+      <c r="D187">
+        <v>2.7</v>
+      </c>
+      <c r="E187" t="s">
+        <v>417</v>
+      </c>
+      <c r="F187">
+        <v>9</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K187" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A188),"00")</f>
+        <v>1378349825707942188</v>
+      </c>
+      <c r="B188" t="s">
+        <v>215</v>
+      </c>
+      <c r="C188" t="s">
+        <v>246</v>
+      </c>
+      <c r="D188">
+        <v>2.5</v>
+      </c>
+      <c r="E188" t="s">
+        <v>417</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K188" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A189),"00")</f>
+        <v>1378349825707942189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>216</v>
+      </c>
+      <c r="C189" t="s">
+        <v>247</v>
+      </c>
+      <c r="D189">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E189" t="s">
+        <v>417</v>
+      </c>
+      <c r="F189">
+        <v>11</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K189" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A190),"00")</f>
+        <v>1378349825707942190</v>
+      </c>
+      <c r="B190" t="s">
+        <v>217</v>
+      </c>
+      <c r="C190" t="s">
+        <v>248</v>
+      </c>
+      <c r="D190">
+        <v>1.9</v>
+      </c>
+      <c r="E190" t="s">
+        <v>417</v>
+      </c>
+      <c r="F190">
+        <v>12</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K190" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A191),"00")</f>
+        <v>1378349825707942191</v>
+      </c>
+      <c r="B191" t="s">
+        <v>218</v>
+      </c>
+      <c r="C191" t="s">
+        <v>249</v>
+      </c>
+      <c r="D191">
+        <v>1.6</v>
+      </c>
+      <c r="E191" t="s">
+        <v>417</v>
+      </c>
+      <c r="F191">
+        <v>13</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K191" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A192),"00")</f>
+        <v>1378349825707942192</v>
+      </c>
+      <c r="B192" t="s">
+        <v>219</v>
+      </c>
+      <c r="C192" t="s">
+        <v>250</v>
+      </c>
+      <c r="D192">
+        <v>1.3</v>
+      </c>
+      <c r="E192" t="s">
+        <v>417</v>
+      </c>
+      <c r="F192">
+        <v>14</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K192" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A193),"00")</f>
+        <v>1378349825707942193</v>
+      </c>
+      <c r="B193" t="s">
+        <v>220</v>
+      </c>
+      <c r="C193" t="s">
+        <v>251</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>417</v>
+      </c>
+      <c r="F193">
+        <v>15</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K193" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A194),"00")</f>
+        <v>1378349825707942194</v>
+      </c>
+      <c r="B194" t="s">
+        <v>221</v>
+      </c>
+      <c r="C194" t="s">
+        <v>252</v>
+      </c>
+      <c r="D194">
+        <v>0.7</v>
+      </c>
+      <c r="E194" t="s">
+        <v>417</v>
+      </c>
+      <c r="F194">
+        <v>16</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K194" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A195),"00")</f>
+        <v>1378349825707942195</v>
+      </c>
+      <c r="B195" t="s">
+        <v>222</v>
+      </c>
+      <c r="C195" t="s">
+        <v>253</v>
+      </c>
+      <c r="D195">
+        <v>0.5</v>
+      </c>
+      <c r="E195" t="s">
+        <v>417</v>
+      </c>
+      <c r="F195">
+        <v>17</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K195" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A196),"00")</f>
+        <v>1378349825707942196</v>
+      </c>
+      <c r="B196" t="s">
+        <v>223</v>
+      </c>
+      <c r="C196" t="s">
+        <v>254</v>
+      </c>
+      <c r="D196">
+        <v>0.3</v>
+      </c>
+      <c r="E196" t="s">
+        <v>417</v>
+      </c>
+      <c r="F196">
+        <v>18</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K196" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A197),"00")</f>
+        <v>1378349825707942197</v>
+      </c>
+      <c r="B197" t="s">
+        <v>224</v>
+      </c>
+      <c r="C197" t="s">
+        <v>255</v>
+      </c>
+      <c r="D197">
+        <v>0.2</v>
+      </c>
+      <c r="E197" t="s">
+        <v>417</v>
+      </c>
+      <c r="F197">
+        <v>19</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K197" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A198),"00")</f>
+        <v>1378349825707942198</v>
+      </c>
+      <c r="B198" t="s">
+        <v>225</v>
+      </c>
+      <c r="C198" t="s">
+        <v>256</v>
+      </c>
+      <c r="D198">
+        <v>2.9</v>
+      </c>
+      <c r="E198" t="s">
+        <v>417</v>
+      </c>
+      <c r="F198">
+        <v>20</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K198" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A199),"00")</f>
+        <v>1378349825707942199</v>
+      </c>
+      <c r="B199" t="s">
+        <v>226</v>
+      </c>
+      <c r="C199" t="s">
+        <v>257</v>
+      </c>
+      <c r="D199">
+        <v>2.7</v>
+      </c>
+      <c r="E199" t="s">
+        <v>417</v>
+      </c>
+      <c r="F199">
+        <v>21</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K199" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A200),"00")</f>
+        <v>1378349825707942200</v>
+      </c>
+      <c r="B200" t="s">
+        <v>227</v>
+      </c>
+      <c r="C200" t="s">
+        <v>258</v>
+      </c>
+      <c r="D200">
+        <v>2.5</v>
+      </c>
+      <c r="E200" t="s">
+        <v>417</v>
+      </c>
+      <c r="F200">
+        <v>22</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K200" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A201),"00")</f>
+        <v>1378349825707942201</v>
+      </c>
+      <c r="B201" t="s">
+        <v>228</v>
+      </c>
+      <c r="C201" t="s">
+        <v>259</v>
+      </c>
+      <c r="D201">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E201" t="s">
+        <v>417</v>
+      </c>
+      <c r="F201">
+        <v>23</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K201" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A202),"00")</f>
+        <v>1378349825707942202</v>
+      </c>
+      <c r="B202" t="s">
+        <v>229</v>
+      </c>
+      <c r="C202" t="s">
+        <v>260</v>
+      </c>
+      <c r="D202">
+        <v>1.9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>417</v>
+      </c>
+      <c r="F202">
+        <v>24</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K202" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A203),"00")</f>
+        <v>1378349825707942203</v>
+      </c>
+      <c r="B203" t="s">
+        <v>230</v>
+      </c>
+      <c r="C203" t="s">
+        <v>261</v>
+      </c>
+      <c r="D203">
+        <v>1.6</v>
+      </c>
+      <c r="E203" t="s">
+        <v>417</v>
+      </c>
+      <c r="F203">
+        <v>25</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K203" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A204),"00")</f>
+        <v>1378349825707942204</v>
+      </c>
+      <c r="B204" t="s">
+        <v>231</v>
+      </c>
+      <c r="C204" t="s">
+        <v>262</v>
+      </c>
+      <c r="D204">
+        <v>1.3</v>
+      </c>
+      <c r="E204" t="s">
+        <v>417</v>
+      </c>
+      <c r="F204">
+        <v>26</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K204" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A205),"00")</f>
+        <v>1378349825707942205</v>
+      </c>
+      <c r="B205" t="s">
+        <v>232</v>
+      </c>
+      <c r="C205" t="s">
+        <v>147</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>417</v>
+      </c>
+      <c r="F205">
+        <v>27</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K205" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A206" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A206),"00")</f>
+        <v>1378349825707942206</v>
+      </c>
+      <c r="B206" t="s">
+        <v>233</v>
+      </c>
+      <c r="C206" t="s">
+        <v>146</v>
+      </c>
+      <c r="D206">
+        <v>0.7</v>
+      </c>
+      <c r="E206" t="s">
+        <v>417</v>
+      </c>
+      <c r="F206">
+        <v>28</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K206" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A207" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A207),"00")</f>
+        <v>1378349825707942207</v>
+      </c>
+      <c r="B207" t="s">
+        <v>234</v>
+      </c>
+      <c r="C207" t="s">
+        <v>145</v>
+      </c>
+      <c r="D207">
+        <v>0.5</v>
+      </c>
+      <c r="E207" t="s">
+        <v>417</v>
+      </c>
+      <c r="F207">
+        <v>29</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K207" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A208" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A208),"00")</f>
+        <v>1378349825707942208</v>
+      </c>
+      <c r="B208" t="s">
+        <v>235</v>
+      </c>
+      <c r="C208" t="s">
+        <v>144</v>
+      </c>
+      <c r="D208">
+        <v>0.3</v>
+      </c>
+      <c r="E208" t="s">
+        <v>417</v>
+      </c>
+      <c r="F208">
+        <v>30</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K208" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A209" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A209),"00")</f>
+        <v>1378349825707942209</v>
+      </c>
+      <c r="B209" t="s">
+        <v>236</v>
+      </c>
+      <c r="C209" t="s">
+        <v>143</v>
+      </c>
+      <c r="D209">
+        <v>0.2</v>
+      </c>
+      <c r="E209" t="s">
+        <v>417</v>
+      </c>
+      <c r="F209">
+        <v>31</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K209" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A210" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A210),"00")</f>
+        <v>1378349825707942210</v>
+      </c>
+      <c r="B210" t="s">
+        <v>195</v>
+      </c>
+      <c r="C210" t="s">
+        <v>196</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K210" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A211),"00")</f>
+        <v>1378349825707942211</v>
+      </c>
+      <c r="B211" t="s">
+        <v>197</v>
+      </c>
+      <c r="C211" t="s">
+        <v>201</v>
+      </c>
+      <c r="D211" t="s">
+        <v>197</v>
+      </c>
+      <c r="E211" t="s">
+        <v>431</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K211" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A212),"00")</f>
+        <v>1378349825707942212</v>
+      </c>
+      <c r="B212" t="s">
+        <v>198</v>
+      </c>
+      <c r="C212" t="s">
         <v>202</v>
       </c>
-      <c r="C173" t="s">
-        <v>206</v>
-      </c>
-      <c r="D173" t="s">
-        <v>207</v>
-      </c>
-      <c r="E173">
+      <c r="D212" t="s">
+        <v>198</v>
+      </c>
+      <c r="E212" t="s">
+        <v>431</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K212" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A213" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A213),"00")</f>
+        <v>1378349825707942213</v>
+      </c>
+      <c r="B213" t="s">
+        <v>199</v>
+      </c>
+      <c r="C213" t="s">
+        <v>203</v>
+      </c>
+      <c r="D213" t="s">
+        <v>199</v>
+      </c>
+      <c r="E213" t="s">
+        <v>431</v>
+      </c>
+      <c r="F213">
+        <v>3</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K213" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A214" t="str">
+        <f>"1378349825707942"&amp;TEXT(ROW(A214),"00")</f>
+        <v>1378349825707942214</v>
+      </c>
+      <c r="B214" t="s">
+        <v>200</v>
+      </c>
+      <c r="C214" t="s">
+        <v>204</v>
+      </c>
+      <c r="D214" t="s">
+        <v>200</v>
+      </c>
+      <c r="E214" t="s">
+        <v>431</v>
+      </c>
+      <c r="F214">
         <v>4</v>
       </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="H173" s="1">
-        <v>44335.972106423615</v>
-      </c>
-      <c r="J173" s="1">
-        <v>44335.972106423615</v>
-      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K214" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I223" s="1"/>
+      <c r="K223" s="1"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I224" s="1"/>
+      <c r="K224" s="1"/>
+    </row>
+    <row r="225" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I225" s="1"/>
+      <c r="K225" s="1"/>
+    </row>
+    <row r="226" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I226" s="1"/>
+      <c r="K226" s="1"/>
+    </row>
+    <row r="227" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I227" s="1"/>
+      <c r="K227" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/基础数据.xlsx
+++ b/doc/基础数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Projects\hrs\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAC67F6-3CA5-46C2-81A2-3F6748AC7ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FF0F2B-4D9F-411F-9BAA-AB1BA20CB422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0DF2F47D-9A2C-4916-8A61-EA5335EE1D1C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="443">
   <si>
     <t>汉族</t>
   </si>
@@ -687,9 +687,6 @@
     <t>1378349825707942162</t>
   </si>
   <si>
-    <t>1378349825707942165</t>
-  </si>
-  <si>
     <t>血型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -728,9 +725,6 @@
     <t>BloodType4</t>
   </si>
   <si>
-    <t>1378349825707942174</t>
-  </si>
-  <si>
     <t>总经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1408,55 +1402,98 @@
     <t>ParentalSupport3</t>
   </si>
   <si>
+    <t>岗位等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post2</t>
+  </si>
+  <si>
+    <t>Post3</t>
+  </si>
+  <si>
+    <t>Post4</t>
+  </si>
+  <si>
+    <t>Post5</t>
+  </si>
+  <si>
+    <t>Post6</t>
+  </si>
+  <si>
+    <t>Post7</t>
+  </si>
+  <si>
+    <t>Post8</t>
+  </si>
+  <si>
+    <t>PostLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1378349825707942167</t>
+  </si>
+  <si>
+    <t>1378349825707942170</t>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duty1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duty2</t>
+  </si>
+  <si>
+    <t>Duty3</t>
+  </si>
+  <si>
+    <t>Duty4</t>
+  </si>
+  <si>
+    <t>Duty5</t>
+  </si>
+  <si>
+    <t>Duty6</t>
+  </si>
+  <si>
+    <t>党支部书记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duty7</t>
+  </si>
+  <si>
     <t>1378349825707942178</t>
   </si>
   <si>
-    <t>岗位等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post2</t>
-  </si>
-  <si>
-    <t>Post3</t>
-  </si>
-  <si>
-    <t>Post4</t>
-  </si>
-  <si>
-    <t>Post5</t>
-  </si>
-  <si>
-    <t>Post6</t>
-  </si>
-  <si>
-    <t>Post7</t>
-  </si>
-  <si>
-    <t>Post8</t>
-  </si>
-  <si>
-    <t>PostLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1378349825707942210</t>
+    <t>1378349825707942187</t>
+  </si>
+  <si>
+    <t>1378349825707942191</t>
   </si>
 </sst>
 </file>
@@ -1829,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F47FD5-0FF8-458C-B69F-176231F0BF77}">
-  <dimension ref="A1:K227"/>
+  <dimension ref="A1:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1876,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -1906,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -1936,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -1966,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -1996,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -2026,7 +2063,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -2056,7 +2093,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -2086,7 +2123,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -2116,7 +2153,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -2146,7 +2183,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -2176,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -2206,7 +2243,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -2236,7 +2273,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -2266,7 +2303,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -2296,7 +2333,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -2326,7 +2363,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -2356,7 +2393,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -2386,7 +2423,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -2416,7 +2453,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -2446,7 +2483,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
@@ -2476,7 +2513,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -2506,7 +2543,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -2536,7 +2573,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -2566,7 +2603,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -2596,7 +2633,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -2626,7 +2663,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
@@ -2656,7 +2693,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -2686,7 +2723,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
@@ -2716,7 +2753,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -2746,7 +2783,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
@@ -2776,7 +2813,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D32" t="s">
         <v>30</v>
@@ -2806,7 +2843,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D33" t="s">
         <v>31</v>
@@ -2836,7 +2873,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D34" t="s">
         <v>32</v>
@@ -2866,7 +2903,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
@@ -2896,7 +2933,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
@@ -2926,7 +2963,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D37" t="s">
         <v>35</v>
@@ -2956,7 +2993,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
@@ -2986,7 +3023,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D39" t="s">
         <v>37</v>
@@ -3016,7 +3053,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D40" t="s">
         <v>38</v>
@@ -3046,7 +3083,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D41" t="s">
         <v>39</v>
@@ -3076,7 +3113,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D42" t="s">
         <v>40</v>
@@ -3106,7 +3143,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
@@ -3136,7 +3173,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D44" t="s">
         <v>42</v>
@@ -3166,7 +3203,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D45" t="s">
         <v>43</v>
@@ -3196,7 +3233,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
@@ -3226,7 +3263,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D47" t="s">
         <v>45</v>
@@ -3256,7 +3293,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D48" t="s">
         <v>46</v>
@@ -3286,7 +3323,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D49" t="s">
         <v>47</v>
@@ -3316,7 +3353,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D50" t="s">
         <v>48</v>
@@ -3346,7 +3383,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D51" t="s">
         <v>49</v>
@@ -3376,7 +3413,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D52" t="s">
         <v>50</v>
@@ -3406,7 +3443,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D53" t="s">
         <v>51</v>
@@ -3436,7 +3473,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D54" t="s">
         <v>52</v>
@@ -3466,7 +3503,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D55" t="s">
         <v>53</v>
@@ -3496,7 +3533,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D56" t="s">
         <v>54</v>
@@ -3526,7 +3563,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D57" t="s">
         <v>55</v>
@@ -3556,7 +3593,7 @@
         <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D58" t="s">
         <v>127</v>
@@ -3586,7 +3623,7 @@
         <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D59" t="s">
         <v>160</v>
@@ -3637,7 +3674,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D61" t="s">
         <v>59</v>
@@ -3667,7 +3704,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D62" t="s">
         <v>60</v>
@@ -3697,7 +3734,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D63" t="s">
         <v>61</v>
@@ -3727,7 +3764,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D64" t="s">
         <v>62</v>
@@ -3757,7 +3794,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D65" t="s">
         <v>63</v>
@@ -3787,7 +3824,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D66" t="s">
         <v>64</v>
@@ -3817,7 +3854,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D67" t="s">
         <v>65</v>
@@ -3847,7 +3884,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D68" t="s">
         <v>66</v>
@@ -3877,7 +3914,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D69" t="s">
         <v>67</v>
@@ -3907,7 +3944,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D70" t="s">
         <v>68</v>
@@ -3937,7 +3974,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D71" t="s">
         <v>69</v>
@@ -3967,7 +4004,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D72" t="s">
         <v>70</v>
@@ -3997,7 +4034,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D73" t="s">
         <v>71</v>
@@ -4048,7 +4085,7 @@
         <v>182</v>
       </c>
       <c r="C75" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D75" t="s">
         <v>182</v>
@@ -4078,7 +4115,7 @@
         <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D76" t="s">
         <v>183</v>
@@ -4108,7 +4145,7 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D77" t="s">
         <v>76</v>
@@ -4138,7 +4175,7 @@
         <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D78" t="s">
         <v>184</v>
@@ -4168,7 +4205,7 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D79" t="s">
         <v>75</v>
@@ -4198,7 +4235,7 @@
         <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D80" t="s">
         <v>77</v>
@@ -4228,7 +4265,7 @@
         <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D81" t="s">
         <v>78</v>
@@ -4258,7 +4295,7 @@
         <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D82" t="s">
         <v>79</v>
@@ -4309,7 +4346,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D84" t="s">
         <v>82</v>
@@ -4339,7 +4376,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D85" t="s">
         <v>83</v>
@@ -4369,7 +4406,7 @@
         <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D86" t="s">
         <v>81</v>
@@ -4423,7 +4460,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D88" t="s">
         <v>89</v>
@@ -4453,7 +4490,7 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D89" t="s">
         <v>90</v>
@@ -4504,7 +4541,7 @@
         <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D91" t="s">
         <v>96</v>
@@ -4534,7 +4571,7 @@
         <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D92" t="s">
         <v>97</v>
@@ -4564,7 +4601,7 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D93" t="s">
         <v>95</v>
@@ -4594,7 +4631,7 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D94" t="s">
         <v>94</v>
@@ -4624,7 +4661,7 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D95" t="s">
         <v>98</v>
@@ -4654,7 +4691,7 @@
         <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D96" t="s">
         <v>93</v>
@@ -4705,7 +4742,7 @@
         <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D98" t="s">
         <v>102</v>
@@ -4735,7 +4772,7 @@
         <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D99" t="s">
         <v>103</v>
@@ -4765,7 +4802,7 @@
         <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D100" t="s">
         <v>104</v>
@@ -4788,14 +4825,14 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <f t="shared" ref="A101:A164" si="2">"1378349825707942"&amp;TEXT(ROW(A101),"00")</f>
+        <f t="shared" ref="A101:A169" si="2">"1378349825707942"&amp;TEXT(ROW(A101),"00")</f>
         <v>1378349825707942101</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D101" t="s">
         <v>101</v>
@@ -4846,7 +4883,7 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>105</v>
@@ -4876,7 +4913,7 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D104" t="s">
         <v>106</v>
@@ -4906,7 +4943,7 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D105" t="s">
         <v>107</v>
@@ -4936,7 +4973,7 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D106" t="s">
         <v>108</v>
@@ -4966,7 +5003,7 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D107" t="s">
         <v>109</v>
@@ -4996,7 +5033,7 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D108" t="s">
         <v>110</v>
@@ -5026,7 +5063,7 @@
         <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D109" t="s">
         <v>115</v>
@@ -5056,7 +5093,7 @@
         <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D110" t="s">
         <v>116</v>
@@ -5086,7 +5123,7 @@
         <v>117</v>
       </c>
       <c r="C111" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D111" t="s">
         <v>117</v>
@@ -5116,7 +5153,7 @@
         <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D112" t="s">
         <v>118</v>
@@ -5146,7 +5183,7 @@
         <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D113" t="s">
         <v>119</v>
@@ -5176,7 +5213,7 @@
         <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D114" t="s">
         <v>120</v>
@@ -5206,7 +5243,7 @@
         <v>123</v>
       </c>
       <c r="C115" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D115" t="s">
         <v>123</v>
@@ -5236,7 +5273,7 @@
         <v>124</v>
       </c>
       <c r="C116" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D116" t="s">
         <v>124</v>
@@ -5266,7 +5303,7 @@
         <v>125</v>
       </c>
       <c r="C117" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D117" t="s">
         <v>125</v>
@@ -5296,7 +5333,7 @@
         <v>126</v>
       </c>
       <c r="C118" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D118" t="s">
         <v>126</v>
@@ -5326,7 +5363,7 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D119" t="s">
         <v>121</v>
@@ -5356,7 +5393,7 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D120" t="s">
         <v>122</v>
@@ -5386,7 +5423,7 @@
         <v>111</v>
       </c>
       <c r="C121" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D121" t="s">
         <v>111</v>
@@ -5416,7 +5453,7 @@
         <v>112</v>
       </c>
       <c r="C122" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D122" t="s">
         <v>112</v>
@@ -5446,7 +5483,7 @@
         <v>113</v>
       </c>
       <c r="C123" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D123" t="s">
         <v>113</v>
@@ -5476,7 +5513,7 @@
         <v>114</v>
       </c>
       <c r="C124" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D124" t="s">
         <v>114</v>
@@ -5506,7 +5543,7 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D125" t="s">
         <v>127</v>
@@ -5557,7 +5594,7 @@
         <v>132</v>
       </c>
       <c r="C127" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>132</v>
@@ -5587,7 +5624,7 @@
         <v>134</v>
       </c>
       <c r="C128" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>134</v>
@@ -5617,7 +5654,7 @@
         <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D129" t="s">
         <v>133</v>
@@ -5668,7 +5705,7 @@
         <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D131" t="s">
         <v>138</v>
@@ -5698,7 +5735,7 @@
         <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D132" t="s">
         <v>139</v>
@@ -5728,7 +5765,7 @@
         <v>140</v>
       </c>
       <c r="C133" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D133" t="s">
         <v>140</v>
@@ -5758,7 +5795,7 @@
         <v>141</v>
       </c>
       <c r="C134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D134" t="s">
         <v>141</v>
@@ -5788,7 +5825,7 @@
         <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D135" t="s">
         <v>142</v>
@@ -5818,7 +5855,7 @@
         <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D136" t="s">
         <v>143</v>
@@ -5848,7 +5885,7 @@
         <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D137" t="s">
         <v>144</v>
@@ -5878,7 +5915,7 @@
         <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D138" t="s">
         <v>145</v>
@@ -5908,7 +5945,7 @@
         <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D139" t="s">
         <v>146</v>
@@ -5938,7 +5975,7 @@
         <v>147</v>
       </c>
       <c r="C140" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D140" t="s">
         <v>147</v>
@@ -5968,7 +6005,7 @@
         <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D141" t="s">
         <v>148</v>
@@ -5998,7 +6035,7 @@
         <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D142" t="s">
         <v>149</v>
@@ -6028,7 +6065,7 @@
         <v>150</v>
       </c>
       <c r="C143" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D143" t="s">
         <v>150</v>
@@ -6058,7 +6095,7 @@
         <v>151</v>
       </c>
       <c r="C144" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D144" t="s">
         <v>151</v>
@@ -6088,7 +6125,7 @@
         <v>152</v>
       </c>
       <c r="C145" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D145" t="s">
         <v>152</v>
@@ -6118,7 +6155,7 @@
         <v>137</v>
       </c>
       <c r="C146" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D146" t="s">
         <v>137</v>
@@ -6169,7 +6206,7 @@
         <v>153</v>
       </c>
       <c r="C148" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D148" t="s">
         <v>153</v>
@@ -6199,7 +6236,7 @@
         <v>155</v>
       </c>
       <c r="C149" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D149" t="s">
         <v>155</v>
@@ -6229,7 +6266,7 @@
         <v>156</v>
       </c>
       <c r="C150" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D150" t="s">
         <v>156</v>
@@ -6259,7 +6296,7 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D151" t="s">
         <v>154</v>
@@ -6310,7 +6347,7 @@
         <v>161</v>
       </c>
       <c r="C153" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D153" t="s">
         <v>161</v>
@@ -6340,7 +6377,7 @@
         <v>162</v>
       </c>
       <c r="C154" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D154" t="s">
         <v>162</v>
@@ -6370,7 +6407,7 @@
         <v>163</v>
       </c>
       <c r="C155" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D155" t="s">
         <v>163</v>
@@ -6400,7 +6437,7 @@
         <v>164</v>
       </c>
       <c r="C156" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D156" t="s">
         <v>164</v>
@@ -6430,7 +6467,7 @@
         <v>165</v>
       </c>
       <c r="C157" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D157" t="s">
         <v>165</v>
@@ -6460,7 +6497,7 @@
         <v>166</v>
       </c>
       <c r="C158" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D158" t="s">
         <v>166</v>
@@ -6490,7 +6527,7 @@
         <v>167</v>
       </c>
       <c r="C159" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D159" t="s">
         <v>167</v>
@@ -6520,7 +6557,7 @@
         <v>168</v>
       </c>
       <c r="C160" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D160" t="s">
         <v>168</v>
@@ -6550,7 +6587,7 @@
         <v>169</v>
       </c>
       <c r="C161" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D161" t="s">
         <v>169</v>
@@ -6573,14 +6610,14 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
-        <f t="shared" si="2"/>
+        <f>"1378349825707942"&amp;TEXT(ROW(A162),"00")</f>
         <v>1378349825707942162</v>
       </c>
       <c r="B162" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="C162" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -6594,17 +6631,17 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
-        <f t="shared" si="2"/>
+        <f>"1378349825707942"&amp;TEXT(ROW(A163),"00")</f>
         <v>1378349825707942163</v>
       </c>
       <c r="B163" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C163" t="s">
-        <v>292</v>
+        <v>200</v>
       </c>
       <c r="D163" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="E163" t="s">
         <v>193</v>
@@ -6624,17 +6661,17 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
-        <f t="shared" si="2"/>
+        <f>"1378349825707942"&amp;TEXT(ROW(A164),"00")</f>
         <v>1378349825707942164</v>
       </c>
       <c r="B164" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C164" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="D164" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="E164" t="s">
         <v>193</v>
@@ -6658,10 +6695,19 @@
         <v>1378349825707942165</v>
       </c>
       <c r="B165" t="s">
-        <v>419</v>
+        <v>198</v>
       </c>
       <c r="C165" t="s">
-        <v>420</v>
+        <v>202</v>
+      </c>
+      <c r="D165" t="s">
+        <v>198</v>
+      </c>
+      <c r="E165" t="s">
+        <v>193</v>
+      </c>
+      <c r="F165">
+        <v>3</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -6675,23 +6721,23 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
-        <f t="shared" ref="A166:A173" si="3">"1378349825707942"&amp;TEXT(ROW(A166),"00")</f>
+        <f>"1378349825707942"&amp;TEXT(ROW(A166),"00")</f>
         <v>1378349825707942166</v>
       </c>
       <c r="B166" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C166" t="s">
-        <v>422</v>
+        <v>203</v>
       </c>
       <c r="D166" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E166" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -6705,23 +6751,14 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1378349825707942167</v>
       </c>
       <c r="B167" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="C167" t="s">
-        <v>423</v>
-      </c>
-      <c r="D167" t="s">
-        <v>207</v>
-      </c>
-      <c r="E167" t="s">
-        <v>194</v>
-      </c>
-      <c r="F167">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -6735,23 +6772,23 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1378349825707942168</v>
       </c>
       <c r="B168" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="C168" t="s">
-        <v>424</v>
+        <v>290</v>
       </c>
       <c r="D168" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E168" t="s">
-        <v>194</v>
+        <v>428</v>
       </c>
       <c r="F168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -6765,23 +6802,23 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1378349825707942169</v>
       </c>
       <c r="B169" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="C169" t="s">
-        <v>425</v>
+        <v>291</v>
       </c>
       <c r="D169" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="E169" t="s">
-        <v>194</v>
+        <v>428</v>
       </c>
       <c r="F169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -6795,23 +6832,14 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
-        <f t="shared" si="3"/>
+        <f>"1378349825707942"&amp;TEXT(ROW(A170),"00")</f>
         <v>1378349825707942170</v>
       </c>
       <c r="B170" t="s">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="C170" t="s">
-        <v>426</v>
-      </c>
-      <c r="D170" t="s">
-        <v>210</v>
-      </c>
-      <c r="E170" t="s">
-        <v>194</v>
-      </c>
-      <c r="F170">
-        <v>5</v>
+        <v>431</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -6825,23 +6853,23 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
-        <f t="shared" si="3"/>
+        <f>"1378349825707942"&amp;TEXT(ROW(A171),"00")</f>
         <v>1378349825707942171</v>
       </c>
       <c r="B171" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C171" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D171" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E171" t="s">
-        <v>194</v>
+        <v>429</v>
       </c>
       <c r="F171">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -6855,23 +6883,23 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
-        <f t="shared" si="3"/>
+        <f>"1378349825707942"&amp;TEXT(ROW(A172),"00")</f>
         <v>1378349825707942172</v>
       </c>
       <c r="B172" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C172" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D172" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E172" t="s">
-        <v>194</v>
+        <v>429</v>
       </c>
       <c r="F172">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -6885,23 +6913,23 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
-        <f t="shared" si="3"/>
+        <f>"1378349825707942"&amp;TEXT(ROW(A173),"00")</f>
         <v>1378349825707942173</v>
       </c>
       <c r="B173" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C173" t="s">
+        <v>434</v>
+      </c>
+      <c r="D173" t="s">
+        <v>438</v>
+      </c>
+      <c r="E173" t="s">
         <v>429</v>
       </c>
-      <c r="D173" t="s">
-        <v>421</v>
-      </c>
-      <c r="E173" t="s">
-        <v>194</v>
-      </c>
       <c r="F173">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -6915,14 +6943,23 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
-        <f t="shared" ref="A174:A177" si="4">"1378349825707942"&amp;TEXT(ROW(A174),"00")</f>
+        <f>"1378349825707942"&amp;TEXT(ROW(A174),"00")</f>
         <v>1378349825707942174</v>
       </c>
       <c r="B174" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="C174" t="s">
-        <v>178</v>
+        <v>435</v>
+      </c>
+      <c r="D174" t="s">
+        <v>207</v>
+      </c>
+      <c r="E174" t="s">
+        <v>429</v>
+      </c>
+      <c r="F174">
+        <v>4</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -6936,23 +6973,23 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
-        <f t="shared" si="4"/>
+        <f>"1378349825707942"&amp;TEXT(ROW(A175),"00")</f>
         <v>1378349825707942175</v>
       </c>
       <c r="B175" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="C175" t="s">
-        <v>294</v>
+        <v>436</v>
       </c>
       <c r="D175" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="E175" t="s">
-        <v>205</v>
+        <v>429</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -6966,23 +7003,23 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="str">
-        <f t="shared" si="4"/>
+        <f>"1378349825707942"&amp;TEXT(ROW(A176),"00")</f>
         <v>1378349825707942176</v>
       </c>
       <c r="B176" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="C176" t="s">
-        <v>295</v>
+        <v>437</v>
       </c>
       <c r="D176" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="E176" t="s">
-        <v>205</v>
+        <v>429</v>
       </c>
       <c r="F176">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -6996,23 +7033,23 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="str">
-        <f t="shared" si="4"/>
+        <f>"1378349825707942"&amp;TEXT(ROW(A177),"00")</f>
         <v>1378349825707942177</v>
       </c>
       <c r="B177" t="s">
-        <v>181</v>
+        <v>418</v>
       </c>
       <c r="C177" t="s">
-        <v>296</v>
+        <v>439</v>
       </c>
       <c r="D177" t="s">
-        <v>181</v>
+        <v>418</v>
       </c>
       <c r="E177" t="s">
-        <v>205</v>
+        <v>429</v>
       </c>
       <c r="F177">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -7030,10 +7067,10 @@
         <v>1378349825707942178</v>
       </c>
       <c r="B178" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C178" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -7047,20 +7084,20 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A179),"00")</f>
+        <f t="shared" ref="A179:A186" si="3">"1378349825707942"&amp;TEXT(ROW(A179),"00")</f>
         <v>1378349825707942179</v>
       </c>
       <c r="B179" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C179" t="s">
-        <v>237</v>
-      </c>
-      <c r="D179">
-        <v>9.8000000000000007</v>
+        <v>419</v>
+      </c>
+      <c r="D179" t="s">
+        <v>204</v>
       </c>
       <c r="E179" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -7077,20 +7114,20 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A180),"00")</f>
+        <f t="shared" si="3"/>
         <v>1378349825707942180</v>
       </c>
       <c r="B180" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C180" t="s">
-        <v>238</v>
-      </c>
-      <c r="D180">
-        <v>7.8</v>
+        <v>420</v>
+      </c>
+      <c r="D180" t="s">
+        <v>205</v>
       </c>
       <c r="E180" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="F180">
         <v>2</v>
@@ -7107,20 +7144,20 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A181),"00")</f>
+        <f t="shared" si="3"/>
         <v>1378349825707942181</v>
       </c>
       <c r="B181" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C181" t="s">
-        <v>239</v>
-      </c>
-      <c r="D181">
-        <v>5</v>
+        <v>421</v>
+      </c>
+      <c r="D181" t="s">
+        <v>206</v>
       </c>
       <c r="E181" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="F181">
         <v>3</v>
@@ -7137,20 +7174,20 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A182),"00")</f>
+        <f t="shared" si="3"/>
         <v>1378349825707942182</v>
       </c>
       <c r="B182" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C182" t="s">
-        <v>240</v>
-      </c>
-      <c r="D182">
-        <v>4.7</v>
+        <v>422</v>
+      </c>
+      <c r="D182" t="s">
+        <v>207</v>
       </c>
       <c r="E182" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="F182">
         <v>4</v>
@@ -7167,20 +7204,20 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A183),"00")</f>
+        <f t="shared" si="3"/>
         <v>1378349825707942183</v>
       </c>
       <c r="B183" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C183" t="s">
-        <v>241</v>
-      </c>
-      <c r="D183">
-        <v>3.3</v>
+        <v>423</v>
+      </c>
+      <c r="D183" t="s">
+        <v>208</v>
       </c>
       <c r="E183" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="F183">
         <v>5</v>
@@ -7197,20 +7234,20 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A184),"00")</f>
+        <f t="shared" si="3"/>
         <v>1378349825707942184</v>
       </c>
       <c r="B184" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C184" t="s">
-        <v>242</v>
-      </c>
-      <c r="D184">
-        <v>2.7</v>
+        <v>424</v>
+      </c>
+      <c r="D184" t="s">
+        <v>209</v>
       </c>
       <c r="E184" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="F184">
         <v>6</v>
@@ -7227,20 +7264,20 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A185),"00")</f>
+        <f t="shared" si="3"/>
         <v>1378349825707942185</v>
       </c>
       <c r="B185" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C185" t="s">
-        <v>243</v>
-      </c>
-      <c r="D185">
-        <v>2.2000000000000002</v>
+        <v>425</v>
+      </c>
+      <c r="D185" t="s">
+        <v>210</v>
       </c>
       <c r="E185" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="F185">
         <v>7</v>
@@ -7257,20 +7294,20 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A186),"00")</f>
+        <f t="shared" si="3"/>
         <v>1378349825707942186</v>
       </c>
       <c r="B186" t="s">
-        <v>213</v>
+        <v>418</v>
       </c>
       <c r="C186" t="s">
-        <v>244</v>
-      </c>
-      <c r="D186">
-        <v>2.9</v>
+        <v>426</v>
+      </c>
+      <c r="D186" t="s">
+        <v>418</v>
       </c>
       <c r="E186" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="F186">
         <v>8</v>
@@ -7287,23 +7324,14 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A187),"00")</f>
+        <f t="shared" ref="A187:A190" si="4">"1378349825707942"&amp;TEXT(ROW(A187),"00")</f>
         <v>1378349825707942187</v>
       </c>
       <c r="B187" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="C187" t="s">
-        <v>245</v>
-      </c>
-      <c r="D187">
-        <v>2.7</v>
-      </c>
-      <c r="E187" t="s">
-        <v>417</v>
-      </c>
-      <c r="F187">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -7317,23 +7345,23 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A188),"00")</f>
+        <f t="shared" si="4"/>
         <v>1378349825707942188</v>
       </c>
       <c r="B188" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="C188" t="s">
-        <v>246</v>
-      </c>
-      <c r="D188">
-        <v>2.5</v>
+        <v>292</v>
+      </c>
+      <c r="D188" t="s">
+        <v>179</v>
       </c>
       <c r="E188" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="F188">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -7347,23 +7375,23 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A189),"00")</f>
+        <f t="shared" si="4"/>
         <v>1378349825707942189</v>
       </c>
       <c r="B189" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="C189" t="s">
-        <v>247</v>
-      </c>
-      <c r="D189">
-        <v>2.2000000000000002</v>
+        <v>293</v>
+      </c>
+      <c r="D189" t="s">
+        <v>180</v>
       </c>
       <c r="E189" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="F189">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -7377,23 +7405,23 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A190),"00")</f>
+        <f t="shared" si="4"/>
         <v>1378349825707942190</v>
       </c>
       <c r="B190" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="C190" t="s">
-        <v>248</v>
-      </c>
-      <c r="D190">
-        <v>1.9</v>
+        <v>294</v>
+      </c>
+      <c r="D190" t="s">
+        <v>181</v>
       </c>
       <c r="E190" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="F190">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -7407,23 +7435,14 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A191),"00")</f>
+        <f t="shared" ref="A191:A222" si="5">"1378349825707942"&amp;TEXT(ROW(A191),"00")</f>
         <v>1378349825707942191</v>
       </c>
       <c r="B191" t="s">
-        <v>218</v>
+        <v>415</v>
       </c>
       <c r="C191" t="s">
-        <v>249</v>
-      </c>
-      <c r="D191">
-        <v>1.6</v>
-      </c>
-      <c r="E191" t="s">
-        <v>417</v>
-      </c>
-      <c r="F191">
-        <v>13</v>
+        <v>427</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -7437,23 +7456,23 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A192),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942192</v>
       </c>
       <c r="B192" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C192" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D192">
-        <v>1.3</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E192" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F192">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -7467,23 +7486,23 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A193),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942193</v>
       </c>
       <c r="B193" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C193" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>7.8</v>
       </c>
       <c r="E193" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F193">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -7497,23 +7516,23 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A194),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942194</v>
       </c>
       <c r="B194" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C194" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D194">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="E194" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F194">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -7527,23 +7546,23 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A195),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942195</v>
       </c>
       <c r="B195" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C195" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D195">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="E195" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F195">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -7557,23 +7576,23 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A196),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942196</v>
       </c>
       <c r="B196" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C196" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D196">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="E196" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F196">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -7587,23 +7606,23 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A197),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942197</v>
       </c>
       <c r="B197" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C197" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D197">
-        <v>0.2</v>
+        <v>2.7</v>
       </c>
       <c r="E197" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F197">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -7617,23 +7636,23 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A198),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942198</v>
       </c>
       <c r="B198" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C198" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D198">
-        <v>2.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E198" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F198">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -7647,23 +7666,23 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A199),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942199</v>
       </c>
       <c r="B199" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C199" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D199">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="E199" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F199">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -7677,23 +7696,23 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A200),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942200</v>
       </c>
       <c r="B200" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C200" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D200">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="E200" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F200">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -7707,23 +7726,23 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A201),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942201</v>
       </c>
       <c r="B201" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C201" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D201">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="E201" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F201">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -7737,23 +7756,23 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A202),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942202</v>
       </c>
       <c r="B202" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C202" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D202">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E202" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F202">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -7767,23 +7786,23 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A203),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942203</v>
       </c>
       <c r="B203" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D203">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="E203" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F203">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -7797,23 +7816,23 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A204),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942204</v>
       </c>
       <c r="B204" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C204" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D204">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="E204" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F204">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -7827,23 +7846,23 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A205),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942205</v>
       </c>
       <c r="B205" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>147</v>
+        <v>248</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="E205" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F205">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -7857,23 +7876,23 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A206),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942206</v>
       </c>
       <c r="B206" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>146</v>
+        <v>249</v>
       </c>
       <c r="D206">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E206" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F206">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -7887,23 +7906,23 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A207),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942207</v>
       </c>
       <c r="B207" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="D207">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E207" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F207">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -7917,23 +7936,23 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A208),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942208</v>
       </c>
       <c r="B208" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C208" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="D208">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E208" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F208">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -7947,23 +7966,23 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A209),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942209</v>
       </c>
       <c r="B209" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C209" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="D209">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E209" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="F209">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -7977,14 +7996,23 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A210),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942210</v>
       </c>
       <c r="B210" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="C210" t="s">
-        <v>196</v>
+        <v>253</v>
+      </c>
+      <c r="D210">
+        <v>0.2</v>
+      </c>
+      <c r="E210" t="s">
+        <v>442</v>
+      </c>
+      <c r="F210">
+        <v>19</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -7998,23 +8026,23 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A211),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942211</v>
       </c>
       <c r="B211" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="C211" t="s">
-        <v>201</v>
-      </c>
-      <c r="D211" t="s">
-        <v>197</v>
+        <v>254</v>
+      </c>
+      <c r="D211">
+        <v>2.9</v>
       </c>
       <c r="E211" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -8028,23 +8056,23 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A212),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942212</v>
       </c>
       <c r="B212" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C212" t="s">
-        <v>202</v>
-      </c>
-      <c r="D212" t="s">
-        <v>198</v>
+        <v>255</v>
+      </c>
+      <c r="D212">
+        <v>2.7</v>
       </c>
       <c r="E212" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -8058,23 +8086,23 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A213),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942213</v>
       </c>
       <c r="B213" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C213" t="s">
-        <v>203</v>
-      </c>
-      <c r="D213" t="s">
-        <v>199</v>
+        <v>256</v>
+      </c>
+      <c r="D213">
+        <v>2.5</v>
       </c>
       <c r="E213" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F213">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -8088,23 +8116,23 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="str">
-        <f>"1378349825707942"&amp;TEXT(ROW(A214),"00")</f>
+        <f t="shared" si="5"/>
         <v>1378349825707942214</v>
       </c>
       <c r="B214" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C214" t="s">
-        <v>204</v>
-      </c>
-      <c r="D214" t="s">
-        <v>200</v>
+        <v>257</v>
+      </c>
+      <c r="D214">
+        <v>2.2000000000000002</v>
       </c>
       <c r="E214" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F214">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -8116,25 +8144,265 @@
         <v>44335.972106423615</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I223" s="1"/>
-      <c r="K223" s="1"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I224" s="1"/>
-      <c r="K224" s="1"/>
-    </row>
-    <row r="225" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I225" s="1"/>
-      <c r="K225" s="1"/>
-    </row>
-    <row r="226" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I226" s="1"/>
-      <c r="K226" s="1"/>
-    </row>
-    <row r="227" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I227" s="1"/>
-      <c r="K227" s="1"/>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A215" t="str">
+        <f t="shared" si="5"/>
+        <v>1378349825707942215</v>
+      </c>
+      <c r="B215" t="s">
+        <v>227</v>
+      </c>
+      <c r="C215" t="s">
+        <v>258</v>
+      </c>
+      <c r="D215">
+        <v>1.9</v>
+      </c>
+      <c r="E215" t="s">
+        <v>442</v>
+      </c>
+      <c r="F215">
+        <v>24</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K215" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A216" t="str">
+        <f t="shared" si="5"/>
+        <v>1378349825707942216</v>
+      </c>
+      <c r="B216" t="s">
+        <v>228</v>
+      </c>
+      <c r="C216" t="s">
+        <v>259</v>
+      </c>
+      <c r="D216">
+        <v>1.6</v>
+      </c>
+      <c r="E216" t="s">
+        <v>442</v>
+      </c>
+      <c r="F216">
+        <v>25</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K216" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A217" t="str">
+        <f t="shared" si="5"/>
+        <v>1378349825707942217</v>
+      </c>
+      <c r="B217" t="s">
+        <v>229</v>
+      </c>
+      <c r="C217" t="s">
+        <v>260</v>
+      </c>
+      <c r="D217">
+        <v>1.3</v>
+      </c>
+      <c r="E217" t="s">
+        <v>442</v>
+      </c>
+      <c r="F217">
+        <v>26</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K217" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A218" t="str">
+        <f t="shared" si="5"/>
+        <v>1378349825707942218</v>
+      </c>
+      <c r="B218" t="s">
+        <v>230</v>
+      </c>
+      <c r="C218" t="s">
+        <v>147</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>442</v>
+      </c>
+      <c r="F218">
+        <v>27</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K218" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A219" t="str">
+        <f t="shared" si="5"/>
+        <v>1378349825707942219</v>
+      </c>
+      <c r="B219" t="s">
+        <v>231</v>
+      </c>
+      <c r="C219" t="s">
+        <v>146</v>
+      </c>
+      <c r="D219">
+        <v>0.7</v>
+      </c>
+      <c r="E219" t="s">
+        <v>442</v>
+      </c>
+      <c r="F219">
+        <v>28</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K219" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A220" t="str">
+        <f t="shared" si="5"/>
+        <v>1378349825707942220</v>
+      </c>
+      <c r="B220" t="s">
+        <v>232</v>
+      </c>
+      <c r="C220" t="s">
+        <v>145</v>
+      </c>
+      <c r="D220">
+        <v>0.5</v>
+      </c>
+      <c r="E220" t="s">
+        <v>442</v>
+      </c>
+      <c r="F220">
+        <v>29</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K220" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A221" t="str">
+        <f t="shared" si="5"/>
+        <v>1378349825707942221</v>
+      </c>
+      <c r="B221" t="s">
+        <v>233</v>
+      </c>
+      <c r="C221" t="s">
+        <v>144</v>
+      </c>
+      <c r="D221">
+        <v>0.3</v>
+      </c>
+      <c r="E221" t="s">
+        <v>442</v>
+      </c>
+      <c r="F221">
+        <v>30</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K221" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A222" t="str">
+        <f t="shared" si="5"/>
+        <v>1378349825707942222</v>
+      </c>
+      <c r="B222" t="s">
+        <v>234</v>
+      </c>
+      <c r="C222" t="s">
+        <v>143</v>
+      </c>
+      <c r="D222">
+        <v>0.2</v>
+      </c>
+      <c r="E222" t="s">
+        <v>442</v>
+      </c>
+      <c r="F222">
+        <v>31</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222" s="1">
+        <v>44335.972106423615</v>
+      </c>
+      <c r="K222" s="1">
+        <v>44335.972106423615</v>
+      </c>
+    </row>
+    <row r="231" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I231" s="1"/>
+      <c r="K231" s="1"/>
+    </row>
+    <row r="232" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I232" s="1"/>
+      <c r="K232" s="1"/>
+    </row>
+    <row r="233" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I233" s="1"/>
+      <c r="K233" s="1"/>
+    </row>
+    <row r="234" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I234" s="1"/>
+      <c r="K234" s="1"/>
+    </row>
+    <row r="235" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I235" s="1"/>
+      <c r="K235" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
